--- a/LPC Network Map/Resources/Workstation Inventory.xlsx
+++ b/LPC Network Map/Resources/Workstation Inventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.LANDMARK\Documents\Visual Studio 2015\Projects\LPC_Network_Map\LPC Network Map\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.LANDMARK\Documents\Visual Studio 2015\Projects\LPC_Network_Map\LPC Network Map\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1982,28 +1982,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2019,6 +1997,17 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2071,6 +2060,17 @@
         <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4013,13 +4013,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4068,13 +4068,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4123,13 +4123,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4178,13 +4178,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4233,13 +4233,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>193675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4288,13 +4288,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4343,13 +4343,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4398,13 +4398,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4453,13 +4453,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4508,13 +4508,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4563,13 +4563,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4618,13 +4618,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4673,13 +4673,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4728,13 +4728,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4783,13 +4783,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4838,13 +4838,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4893,13 +4893,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4948,13 +4948,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5003,13 +5003,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5058,13 +5058,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5113,13 +5113,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5168,13 +5168,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5223,13 +5223,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5278,13 +5278,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>193675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5333,13 +5333,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5388,13 +5388,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5443,13 +5443,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5498,7 +5498,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -5548,7 +5548,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -5598,7 +5598,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -5648,7 +5648,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -5698,7 +5698,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -5748,7 +5748,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -5798,7 +5798,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11531,7 +11531,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A6:R67" headerRowDxfId="132" dataDxfId="131">
   <autoFilter ref="A6:R67"/>
   <sortState ref="A7:R67">
-    <sortCondition ref="A6:A67"/>
+    <sortCondition ref="B6:B67"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" name="System Name" totalsRowLabel="Total" dataDxfId="130" totalsRowDxfId="129"/>
@@ -11639,9 +11639,9 @@
     <tableColumn id="17" name="Architecture" dataDxfId="15" totalsRowDxfId="14"/>
     <tableColumn id="19" name="Office Version" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="11" name="BIOS Date" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="12" name="Office 365 License" dataDxfId="5" totalsRowDxfId="9"/>
-    <tableColumn id="13" name="Location" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="9" name="Notes" dataDxfId="4" totalsRowDxfId="6"/>
+    <tableColumn id="12" name="Office 365 License" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="13" name="Location" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" name="Notes" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="3" name="XCoord" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="18" name="YCoord" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
@@ -11917,7 +11917,7 @@
   </sheetPr>
   <dimension ref="A2:U68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:R68"/>
     </sheetView>
   </sheetViews>
@@ -12077,94 +12077,90 @@
     </row>
     <row r="8" spans="1:21" ht="20.25" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="N8" s="9">
-        <v>41502</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>345</v>
-      </c>
+        <v>41887</v>
+      </c>
+      <c r="O8" s="7"/>
       <c r="P8" s="8" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="5">
-        <v>1</v>
-      </c>
+      <c r="R8" s="5"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" ht="20.25" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>41</v>
@@ -12173,55 +12169,51 @@
         <v>42</v>
       </c>
       <c r="N9" s="9">
-        <v>39515</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>347</v>
-      </c>
+        <v>38589</v>
+      </c>
+      <c r="O9" s="7"/>
       <c r="P9" s="8" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="Q9" s="7"/>
-      <c r="R9" s="5">
-        <v>3</v>
-      </c>
+      <c r="R9" s="5"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21" ht="20.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>34</v>
+        <v>332</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>35</v>
+        <v>412</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>41</v>
@@ -12229,56 +12221,52 @@
       <c r="M10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="8">
-        <v>41835</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>345</v>
-      </c>
+      <c r="N10" s="9">
+        <v>41541</v>
+      </c>
+      <c r="O10" s="7"/>
       <c r="P10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8">
-        <v>1</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21" ht="20.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>123</v>
+        <v>354</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>124</v>
+        <v>500</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>190</v>
+        <v>502</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>41</v>
@@ -12286,570 +12274,572 @@
       <c r="M11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="9">
-        <v>38824</v>
-      </c>
-      <c r="O11" s="7"/>
+      <c r="N11" s="8">
+        <v>39759</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="P11" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
     <row r="12" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="A12" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="G12" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="J12" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="9">
-        <v>41948</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="5"/>
+      <c r="N12" s="11">
+        <v>39671</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="10"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:21" ht="20.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>143</v>
+        <v>512</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>144</v>
+        <v>509</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>145</v>
+        <v>516</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="N13" s="9">
-        <v>40050</v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>42088</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="P13" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="5"/>
+        <v>513</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="A14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="I14" s="25" t="s">
+      <c r="G14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="9">
+        <v>40050</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A15" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="L14" s="25" t="s">
+      <c r="J15" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="L15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M15" s="25">
         <v>2003</v>
       </c>
-      <c r="N14" s="26">
-        <v>36314</v>
-      </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="R14" s="25"/>
-    </row>
-    <row r="15" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="N15" s="26">
+        <v>37769</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E16" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="8" t="s">
+      <c r="G16" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="9">
-        <v>41633</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="9">
-        <v>41001</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="5">
-        <v>1</v>
-      </c>
+      <c r="M16" s="10">
+        <v>2003</v>
+      </c>
+      <c r="N16" s="11">
+        <v>39227</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" ht="20.25" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="13">
+        <v>42402</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="9">
+        <v>41001</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="8">
+        <v>41541</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A20" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="25">
+        <v>2007</v>
+      </c>
+      <c r="N20" s="26">
+        <v>39515</v>
+      </c>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+    </row>
+    <row r="21" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="8">
-        <v>41723</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="E21" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="G21" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="10">
-        <v>2007</v>
-      </c>
-      <c r="N18" s="11">
-        <v>40820</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A19" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="25">
-        <v>2007</v>
-      </c>
-      <c r="N19" s="26">
-        <v>39515</v>
-      </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-    </row>
-    <row r="20" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="M21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="9">
-        <v>41835</v>
-      </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A21" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="26">
-        <v>39687</v>
-      </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="R21" s="25"/>
+      <c r="N21" s="9">
+        <v>38824</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="20.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>41</v>
@@ -12858,52 +12848,48 @@
         <v>42</v>
       </c>
       <c r="N22" s="9">
-        <v>40743</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>345</v>
-      </c>
+        <v>40772</v>
+      </c>
+      <c r="O22" s="7"/>
       <c r="P22" s="8" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="5">
-        <v>1</v>
-      </c>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" ht="20.25" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>302</v>
+        <v>123</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>303</v>
+        <v>124</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>304</v>
+        <v>126</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>41</v>
@@ -12912,46 +12898,48 @@
         <v>42</v>
       </c>
       <c r="N23" s="9">
-        <v>39666</v>
+        <v>41948</v>
       </c>
       <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="P23" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" ht="20.25" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>412</v>
+        <v>288</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>41</v>
@@ -12960,48 +12948,52 @@
         <v>42</v>
       </c>
       <c r="N24" s="9">
-        <v>41541</v>
-      </c>
-      <c r="O24" s="7"/>
+        <v>39515</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="P24" s="8" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="Q24" s="7"/>
-      <c r="R24" s="5"/>
+      <c r="R24" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="20.25" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>41</v>
@@ -13009,87 +13001,89 @@
       <c r="M25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="9">
-        <v>39867</v>
-      </c>
-      <c r="O25" s="7"/>
+      <c r="N25" s="8">
+        <v>41835</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="P25" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A26" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="25" t="s">
+      <c r="A26" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="E26" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="L26" s="25" t="s">
+      <c r="G26" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="26">
-        <v>39149</v>
-      </c>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
+      <c r="N26" s="9">
+        <v>39666</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="5"/>
     </row>
     <row r="27" spans="1:18" ht="20.25" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>499</v>
+        <v>213</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>354</v>
+        <v>214</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>500</v>
+        <v>215</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>501</v>
+        <v>217</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>329</v>
@@ -13098,7 +13092,7 @@
         <v>49</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>502</v>
+        <v>201</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>103</v>
@@ -13109,741 +13103,747 @@
       <c r="M27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N27" s="8">
-        <v>39759</v>
-      </c>
-      <c r="O27" s="8" t="s">
+      <c r="N27" s="9">
+        <v>38490</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>347</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="Q27" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="R27" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="A28" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="10">
+        <v>2007</v>
+      </c>
+      <c r="N28" s="11">
+        <v>39867</v>
+      </c>
+      <c r="O28" s="12"/>
+      <c r="P28" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="L28" s="8" t="s">
+      <c r="J29" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="N28" s="8">
-        <v>38824</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-    </row>
-    <row r="29" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="9">
-        <v>41400</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="5">
-        <v>1</v>
-      </c>
+      <c r="N29" s="13">
+        <v>42402</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="A30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="10">
-        <v>2003</v>
-      </c>
-      <c r="N30" s="11">
-        <v>39227</v>
-      </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="10"/>
+      <c r="G30" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="9">
+        <v>41662</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:18" ht="20.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I31" s="5" t="s">
+      <c r="G31" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="13">
-        <v>42402</v>
-      </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5" t="s">
+      <c r="N31" s="9">
+        <v>41101</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A32" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="L32" s="25" t="s">
+      <c r="I32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="25">
-        <v>2007</v>
-      </c>
-      <c r="N32" s="26">
-        <v>39511</v>
-      </c>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q32" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="R32" s="25"/>
+      <c r="M32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="9">
+        <v>41948</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18" ht="20.25" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>242</v>
+        <v>48</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="N33" s="9">
-        <v>41887</v>
-      </c>
-      <c r="O33" s="7"/>
+        <v>41502</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="P33" s="8" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="7"/>
-      <c r="R33" s="5"/>
+      <c r="R33" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="8">
+        <v>41723</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A35" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="26">
+        <v>39478</v>
+      </c>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="R35" s="25"/>
+    </row>
+    <row r="36" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A36" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J36" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K36" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L36" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M36" s="10">
         <v>2007</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N36" s="11">
         <v>39776</v>
       </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="10" t="s">
+      <c r="O36" s="12"/>
+      <c r="P36" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="10"/>
-    </row>
-    <row r="35" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="Q36" s="12"/>
+      <c r="R36" s="10"/>
+    </row>
+    <row r="37" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="G37" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="8">
-        <v>2013</v>
-      </c>
-      <c r="N35" s="9">
-        <v>41984</v>
-      </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="8" t="s">
+      <c r="J37" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N36" s="9">
-        <v>42088</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="R36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M37" s="10">
-        <v>2007</v>
-      </c>
-      <c r="N37" s="11">
-        <v>39755</v>
-      </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q37" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="R37" s="10"/>
+      <c r="N37" s="13">
+        <v>42397</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
     </row>
     <row r="38" spans="1:18" ht="20.25" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>42</v>
       </c>
       <c r="N38" s="9">
-        <v>42013</v>
+        <v>41835</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="8" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="A39" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="25">
+        <v>2007</v>
+      </c>
+      <c r="N39" s="26">
+        <v>39511</v>
+      </c>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="R39" s="25"/>
+    </row>
+    <row r="40" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="9">
+        <v>41541</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" s="8" t="s">
+      <c r="G41" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="8">
-        <v>41984</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A40" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="K40" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L40" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="26">
-        <v>38447</v>
-      </c>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-    </row>
-    <row r="41" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A41" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N41" s="11">
-        <v>39671</v>
-      </c>
-      <c r="O41" s="12"/>
-      <c r="P41" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="10"/>
+      <c r="N41" s="9">
+        <v>41835</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="5"/>
     </row>
     <row r="42" spans="1:18" ht="20.25" customHeight="1">
       <c r="A42" s="25" t="s">
-        <v>418</v>
+        <v>98</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>22</v>
@@ -13855,19 +13855,19 @@
         <v>30</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>415</v>
+        <v>101</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="I42" s="25" t="s">
         <v>64</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>65</v>
+        <v>102</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="L42" s="25" t="s">
         <v>41</v>
@@ -13876,26 +13876,26 @@
         <v>42</v>
       </c>
       <c r="N42" s="26">
-        <v>39478</v>
+        <v>39687</v>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="25" t="s">
-        <v>417</v>
+        <v>104</v>
       </c>
       <c r="Q42" s="25" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="R42" s="25"/>
     </row>
     <row r="43" spans="1:18" ht="20.25" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>61</v>
+        <v>411</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>55</v>
@@ -13907,16 +13907,16 @@
         <v>30</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>335</v>
+        <v>107</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>13</v>
@@ -13928,49 +13928,45 @@
         <v>42</v>
       </c>
       <c r="N43" s="9">
-        <v>41541</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>345</v>
-      </c>
+        <v>40907</v>
+      </c>
+      <c r="O43" s="7"/>
       <c r="P43" s="8" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="Q43" s="7"/>
-      <c r="R43" s="5">
-        <v>1</v>
-      </c>
+      <c r="R43" s="5"/>
     </row>
     <row r="44" spans="1:18" ht="20.25" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>291</v>
+        <v>24</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>13</v>
@@ -13982,143 +13978,147 @@
         <v>42</v>
       </c>
       <c r="N44" s="9">
-        <v>40907</v>
+        <v>40743</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>293</v>
+        <v>86</v>
       </c>
       <c r="Q44" s="7"/>
       <c r="R44" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="A45" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L45" s="8" t="s">
+      <c r="G45" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="L45" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="N45" s="9">
-        <v>41001</v>
-      </c>
-      <c r="O45" s="7"/>
-      <c r="P45" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="5"/>
+      <c r="N45" s="26">
+        <v>39149</v>
+      </c>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
     </row>
     <row r="46" spans="1:18" ht="20.25" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>411</v>
+        <v>158</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N46" s="9">
-        <v>40907</v>
-      </c>
-      <c r="O46" s="7"/>
+      <c r="N46" s="8">
+        <v>41984</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="P46" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="20.25" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>49</v>
@@ -14127,57 +14127,61 @@
         <v>72</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>42</v>
       </c>
       <c r="N47" s="9">
-        <v>41625</v>
-      </c>
-      <c r="O47" s="7"/>
+        <v>41400</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="P47" s="8" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Q47" s="7"/>
-      <c r="R47" s="5"/>
+      <c r="R47" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:18" ht="20.25" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>129</v>
+        <v>294</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>41</v>
@@ -14186,638 +14190,632 @@
         <v>42</v>
       </c>
       <c r="N48" s="9">
-        <v>41835</v>
-      </c>
-      <c r="O48" s="7"/>
+        <v>40907</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="P48" s="8" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="Q48" s="7"/>
-      <c r="R48" s="5"/>
+      <c r="R48" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:18" ht="20.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>253</v>
+        <v>497</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>123</v>
+        <v>431</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>254</v>
+        <v>498</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>41</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="9">
-        <v>40772</v>
-      </c>
-      <c r="O49" s="7"/>
+        <v>495</v>
+      </c>
+      <c r="N49" s="8">
+        <v>38824</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="P49" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
     </row>
     <row r="50" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="A50" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L50" s="8" t="s">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L50" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M50" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="9">
-        <v>38490</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="R50" s="5">
-        <v>2</v>
-      </c>
+      <c r="M50" s="10">
+        <v>2007</v>
+      </c>
+      <c r="N50" s="11">
+        <v>39755</v>
+      </c>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="R50" s="10"/>
     </row>
     <row r="51" spans="1:18" ht="20.25" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>490</v>
+        <v>176</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>491</v>
+        <v>177</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>492</v>
+        <v>178</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="H51" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="I51" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>494</v>
+        <v>181</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="N51" s="8">
-        <v>41565</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>345</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="N51" s="9">
+        <v>42013</v>
+      </c>
+      <c r="O51" s="7"/>
       <c r="P51" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
+        <v>182</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A52" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="F52" s="25" t="s">
+      <c r="A52" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I52" s="25" t="s">
+      <c r="G52" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="I52" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J52" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="K52" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="L52" s="25" t="s">
+      <c r="J52" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M52" s="25">
-        <v>2003</v>
-      </c>
-      <c r="N52" s="26">
-        <v>37769</v>
-      </c>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q52" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="R52" s="25"/>
+      <c r="M52" s="10">
+        <v>2007</v>
+      </c>
+      <c r="N52" s="11">
+        <v>40820</v>
+      </c>
+      <c r="O52" s="12"/>
+      <c r="P52" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="10"/>
     </row>
     <row r="53" spans="1:18" ht="20.25" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>325</v>
+        <v>203</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>326</v>
+        <v>204</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>328</v>
+        <v>206</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>329</v>
+        <v>184</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>207</v>
       </c>
       <c r="N53" s="9">
-        <v>41001</v>
+        <v>41471</v>
       </c>
       <c r="O53" s="7"/>
       <c r="P53" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q53" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="R53" s="8">
-        <v>1</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
     </row>
     <row r="54" spans="1:18" ht="20.25" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>42</v>
       </c>
       <c r="N54" s="9">
-        <v>41471</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>345</v>
-      </c>
+        <v>40735</v>
+      </c>
+      <c r="O54" s="7"/>
       <c r="P54" s="8" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="Q54" s="7"/>
-      <c r="R54" s="5">
-        <v>1</v>
-      </c>
+      <c r="R54" s="5"/>
     </row>
     <row r="55" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="A55" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H55" s="8" t="s">
+      <c r="G55" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H55" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L55" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="25">
+        <v>2003</v>
+      </c>
+      <c r="N55" s="26">
+        <v>36314</v>
+      </c>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q55" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="R55" s="25"/>
+    </row>
+    <row r="56" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I56" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" s="8">
-        <v>2007</v>
-      </c>
-      <c r="N55" s="9">
-        <v>41001</v>
-      </c>
-      <c r="O55" s="7"/>
-      <c r="P55" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A56" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="J56" s="8" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="13">
-        <v>42402</v>
-      </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q56" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="M56" s="8">
+        <v>2013</v>
+      </c>
+      <c r="N56" s="9">
+        <v>41984</v>
+      </c>
+      <c r="O56" s="7"/>
+      <c r="P56" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q56" s="7"/>
       <c r="R56" s="5"/>
     </row>
     <row r="57" spans="1:18" ht="20.25" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>184</v>
+        <v>329</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>207</v>
       </c>
       <c r="N57" s="9">
-        <v>41471</v>
+        <v>41001</v>
       </c>
       <c r="O57" s="7"/>
       <c r="P57" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
+        <v>330</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="R57" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A58" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="F58" s="25" t="s">
+      <c r="A58" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G58" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="L58" s="25" t="s">
+      <c r="G58" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M58" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="N58" s="26">
-        <v>36394</v>
-      </c>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="R58" s="25"/>
+      <c r="M58" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="9">
+        <v>41633</v>
+      </c>
+      <c r="O58" s="7"/>
+      <c r="P58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="5"/>
     </row>
     <row r="59" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="5" t="s">
+      <c r="A59" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L59" s="8" t="s">
+      <c r="G59" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="M59" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="N59" s="13">
-        <v>42397</v>
-      </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
+      <c r="N59" s="26">
+        <v>38447</v>
+      </c>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
     </row>
     <row r="60" spans="1:18" ht="20.25" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="M60" s="8">
+        <v>2007</v>
       </c>
       <c r="N60" s="9">
-        <v>41662</v>
+        <v>41001</v>
       </c>
       <c r="O60" s="7"/>
       <c r="P60" s="8" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="Q60" s="7"/>
       <c r="R60" s="5"/>
     </row>
     <row r="61" spans="1:18" ht="20.25" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>460</v>
+        <v>283</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>461</v>
+        <v>284</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>462</v>
+        <v>285</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>55</v>
@@ -14829,7 +14827,7 @@
         <v>30</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>280</v>
@@ -14849,149 +14847,153 @@
       <c r="M61" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N61" s="8">
-        <v>41541</v>
-      </c>
-      <c r="O61" s="8"/>
+      <c r="N61" s="9">
+        <v>41001</v>
+      </c>
+      <c r="O61" s="7"/>
       <c r="P61" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
+        <v>282</v>
+      </c>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="5"/>
     </row>
     <row r="62" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A62" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="D62" s="10" t="s">
+      <c r="A62" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="10" t="s">
+      <c r="E62" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L62" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M62" s="10">
-        <v>2007</v>
-      </c>
-      <c r="N62" s="11">
-        <v>39867</v>
-      </c>
-      <c r="O62" s="12"/>
-      <c r="P62" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="10"/>
+      <c r="G62" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62" s="9">
+        <v>41471</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A63" s="5" t="s">
-        <v>343</v>
+      <c r="A63" s="8" t="s">
+        <v>490</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I63" s="5" t="s">
+      <c r="G63" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>224</v>
+        <v>494</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N63" s="13">
-        <v>42402</v>
-      </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
+        <v>495</v>
+      </c>
+      <c r="N63" s="8">
+        <v>41565</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
     </row>
     <row r="64" spans="1:18" ht="20.25" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>41</v>
@@ -15000,98 +15002,96 @@
         <v>42</v>
       </c>
       <c r="N64" s="9">
-        <v>40735</v>
+        <v>39867</v>
       </c>
       <c r="O64" s="7"/>
       <c r="P64" s="8" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="Q64" s="7"/>
       <c r="R64" s="5"/>
     </row>
     <row r="65" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="A65" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="F65" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I65" s="8" t="s">
+      <c r="G65" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="L65" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="N65" s="26">
+        <v>36394</v>
+      </c>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="R65" s="25"/>
+    </row>
+    <row r="66" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J65" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K65" s="8" t="s">
+      <c r="J66" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K66" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N65" s="9">
-        <v>41948</v>
-      </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A66" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>41</v>
@@ -15099,62 +15099,62 @@
       <c r="M66" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N66" s="9">
-        <v>38589</v>
-      </c>
-      <c r="O66" s="7"/>
-      <c r="P66" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q66" s="7"/>
+      <c r="N66" s="13">
+        <v>42402</v>
+      </c>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
     </row>
     <row r="67" spans="1:18" ht="20.25" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>321</v>
+        <v>110</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>323</v>
+        <v>112</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>324</v>
+        <v>95</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>42</v>
       </c>
       <c r="N67" s="9">
-        <v>41101</v>
+        <v>41625</v>
       </c>
       <c r="O67" s="7"/>
       <c r="P67" s="8" t="s">
-        <v>324</v>
+        <v>113</v>
       </c>
       <c r="Q67" s="7"/>
       <c r="R67" s="5"/>
@@ -19503,7 +19503,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="20.25" customHeight="1"/>
@@ -23087,9 +23087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23663,10 +23663,10 @@
         <v>454</v>
       </c>
       <c r="R10" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S10" s="5">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -24591,10 +24591,10 @@
         <v>29</v>
       </c>
       <c r="R27" s="5">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="S27" s="5">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="7" customFormat="1">
@@ -24813,10 +24813,10 @@
         <v>455</v>
       </c>
       <c r="R31" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S31" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -24922,10 +24922,10 @@
         <v>97</v>
       </c>
       <c r="R33" s="5">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="S33" s="5">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -24979,10 +24979,10 @@
         <v>456</v>
       </c>
       <c r="R34" s="5">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="S34" s="5">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -25032,10 +25032,10 @@
         <v>104</v>
       </c>
       <c r="R35" s="5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="S35" s="5">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -25367,10 +25367,10 @@
         <v>268</v>
       </c>
       <c r="R41" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="S41" s="5">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -25420,10 +25420,10 @@
         <v>182</v>
       </c>
       <c r="R42" s="5">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="S42" s="5">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -26016,10 +26016,10 @@
         <v>496</v>
       </c>
       <c r="R53" s="5">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S53" s="5">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -26283,10 +26283,10 @@
         <v>113</v>
       </c>
       <c r="R58" s="5">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="S58" s="5">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -26303,9 +26303,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26358,24 +26361,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C6FC57-AB43-434E-B85C-846B864642A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB96730-BCD8-45B8-B442-F17BA784685B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26396,9 +26390,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB96730-BCD8-45B8-B442-F17BA784685B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C6FC57-AB43-434E-B85C-846B864642A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LPC Network Map/Resources/Workstation Inventory.xlsx
+++ b/LPC Network Map/Resources/Workstation Inventory.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="533">
   <si>
     <t>User</t>
   </si>
@@ -1618,6 +1618,15 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>1st Floor</t>
+  </si>
+  <si>
+    <t>2nd Floor</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1788,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1913,6 +1922,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1921,7 +1933,36 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="135">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -11528,89 +11569,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A6:R67" headerRowDxfId="132" dataDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A6:R67" headerRowDxfId="134" dataDxfId="133">
   <autoFilter ref="A6:R67"/>
   <sortState ref="A7:R67">
     <sortCondition ref="B6:B67"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" name="System Name" totalsRowLabel="Total" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="2" name="User" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="15" name="Username" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="6" name="Make" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="7" name="Model" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="14" name="Machine Type" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="5" name="Serial" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="8" name="Department" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="10" name="OS" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="16" name="Processor" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="4" name="Memory" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="17" name="System Type" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="19" name="Office Version" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="11" name="BIOS Date" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="12" name="Office 365 License" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="13" name="Location" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="9" name="Notes" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="3" name="Column1" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="1" name="System Name" totalsRowLabel="Total" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="2" name="User" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="15" name="Username" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="6" name="Make" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="7" name="Model" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="14" name="Machine Type" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="5" name="Serial" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="8" name="Department" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="10" name="OS" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="16" name="Processor" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="4" name="Memory" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="17" name="System Type" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="19" name="Office Version" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="11" name="BIOS Date" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="12" name="Office 365 License" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="13" name="Location" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="9" name="Notes" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="3" name="Column1" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table32" displayName="Table32" ref="A1:R76" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table32" displayName="Table32" ref="A1:R76" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="A1:R76"/>
   <sortState ref="A2:R76">
     <sortCondition ref="B1:B76"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" name="System Name" dataDxfId="92"/>
-    <tableColumn id="2" name="User" dataDxfId="91"/>
-    <tableColumn id="15" name="Username" dataDxfId="90"/>
-    <tableColumn id="6" name="Make" dataDxfId="89"/>
-    <tableColumn id="7" name="Model" dataDxfId="88"/>
-    <tableColumn id="14" name="Machine Type" dataDxfId="87"/>
-    <tableColumn id="5" name="Serial" dataDxfId="86"/>
-    <tableColumn id="8" name="Department" dataDxfId="85"/>
-    <tableColumn id="10" name="OS" dataDxfId="84"/>
-    <tableColumn id="16" name="Processor" dataDxfId="83"/>
-    <tableColumn id="4" name="Memory" dataDxfId="82"/>
-    <tableColumn id="17" name="System Type" dataDxfId="81"/>
-    <tableColumn id="19" name="Office Version" dataDxfId="80"/>
-    <tableColumn id="11" name="BIOS Date" dataDxfId="79"/>
-    <tableColumn id="12" name="Office 365 License" dataDxfId="78"/>
-    <tableColumn id="13" name="Location" dataDxfId="77"/>
-    <tableColumn id="9" name="Notes" dataDxfId="76"/>
-    <tableColumn id="3" name="Column1" dataDxfId="75"/>
+    <tableColumn id="1" name="System Name" dataDxfId="94"/>
+    <tableColumn id="2" name="User" dataDxfId="93"/>
+    <tableColumn id="15" name="Username" dataDxfId="92"/>
+    <tableColumn id="6" name="Make" dataDxfId="91"/>
+    <tableColumn id="7" name="Model" dataDxfId="90"/>
+    <tableColumn id="14" name="Machine Type" dataDxfId="89"/>
+    <tableColumn id="5" name="Serial" dataDxfId="88"/>
+    <tableColumn id="8" name="Department" dataDxfId="87"/>
+    <tableColumn id="10" name="OS" dataDxfId="86"/>
+    <tableColumn id="16" name="Processor" dataDxfId="85"/>
+    <tableColumn id="4" name="Memory" dataDxfId="84"/>
+    <tableColumn id="17" name="System Type" dataDxfId="83"/>
+    <tableColumn id="19" name="Office Version" dataDxfId="82"/>
+    <tableColumn id="11" name="BIOS Date" dataDxfId="81"/>
+    <tableColumn id="12" name="Office 365 License" dataDxfId="80"/>
+    <tableColumn id="13" name="Location" dataDxfId="79"/>
+    <tableColumn id="9" name="Notes" dataDxfId="78"/>
+    <tableColumn id="3" name="Column1" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table323" displayName="Table323" ref="A1:Q71" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table323" displayName="Table323" ref="A1:Q71" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="A1:Q71"/>
   <sortState ref="A2:Q71">
     <sortCondition ref="B1:B71"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="System Name" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="2" name="User" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="15" name="Username" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="6" name="Make" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="7" name="Model" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="14" name="Machine Type" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="5" name="Serial" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="8" name="Department" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="10" name="OS" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="16" name="Processor" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="4" name="Memory" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="17" name="System Type" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="11" name="BIOS Date" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="12" name="Office 365 License" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="13" name="Location" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="3" name="Monthy License Cost" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma"/>
-    <tableColumn id="9" name="3/9/2016" dataDxfId="40" dataCellStyle="Comma">
+    <tableColumn id="1" name="System Name" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="2" name="User" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="15" name="Username" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="6" name="Make" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="7" name="Model" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="14" name="Machine Type" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="5" name="Serial" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="8" name="Department" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="10" name="OS" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="16" name="Processor" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="4" name="Memory" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="17" name="System Type" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="11" name="BIOS Date" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="12" name="Office 365 License" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="13" name="Location" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="3" name="Monthy License Cost" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Comma"/>
+    <tableColumn id="9" name="3/9/2016" dataDxfId="42" dataCellStyle="Comma">
       <calculatedColumnFormula>YEAR(Table323[[#Headers],[3/9/2016]])-YEAR(Table323[[#This Row],[BIOS Date]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11619,31 +11660,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:S58" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:S58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:T58" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:T58"/>
   <sortState ref="A2:S57">
     <sortCondition ref="B1:B57"/>
   </sortState>
-  <tableColumns count="19">
-    <tableColumn id="1" name="Device Name" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" name="User" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="15" name="Username" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="6" name="Make" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="7" name="Model" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="14" name="Type" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="5" name="Serial" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="8" name="Department" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="10" name="OS" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="16" name="Processor" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" name="Memory" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="17" name="Architecture" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="19" name="Office Version" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="11" name="BIOS Date" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="12" name="Office 365 License" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="13" name="Location" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="9" name="Notes" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="XCoord" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="18" name="YCoord" dataDxfId="1" totalsRowDxfId="0"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="Device Name" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" name="User" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="15" name="Username" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="6" name="Make" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="7" name="Model" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="14" name="Type" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="5" name="Serial" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="Department" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="OS" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="16" name="Processor" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" name="Memory" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="17" name="Architecture" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="19" name="Office Version" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="11" name="BIOS Date" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="12" name="Office 365 License" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="13" name="Location" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="9" name="Notes" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="XCoord" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="18" name="YCoord" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="20" name="Area" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23085,11 +23127,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R54" sqref="R54"/>
+      <selection pane="topRight" activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23112,9 +23154,10 @@
     <col min="16" max="16" width="24.7109375" customWidth="1"/>
     <col min="17" max="17" width="41" style="21" customWidth="1"/>
     <col min="18" max="19" width="17.28515625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="8" t="s">
         <v>528</v>
       </c>
@@ -23172,8 +23215,11 @@
       <c r="S1" s="37" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="47" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="8" t="s">
         <v>248</v>
       </c>
@@ -23225,8 +23271,11 @@
       <c r="S2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="8" t="s">
         <v>519</v>
       </c>
@@ -23270,7 +23319,7 @@
         <v>41887</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="R3" s="35">
         <v>14</v>
@@ -23278,8 +23327,11 @@
       <c r="S3" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="8" t="s">
         <v>245</v>
       </c>
@@ -23331,8 +23383,11 @@
       <c r="S4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="38" t="s">
         <v>506</v>
       </c>
@@ -23390,8 +23445,9 @@
       <c r="S5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="8" t="s">
         <v>332</v>
       </c>
@@ -23443,8 +23499,9 @@
       <c r="S6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="8" t="s">
         <v>499</v>
       </c>
@@ -23499,8 +23556,9 @@
       <c r="S7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="8" t="s">
         <v>512</v>
       </c>
@@ -23558,8 +23616,11 @@
       <c r="S8" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="8" t="s">
         <v>143</v>
       </c>
@@ -23606,13 +23667,16 @@
         <v>149</v>
       </c>
       <c r="R9" s="5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>36</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="25" t="s">
         <v>262</v>
       </c>
@@ -23668,8 +23732,11 @@
       <c r="S10" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="8" t="s">
         <v>341</v>
       </c>
@@ -23723,8 +23790,9 @@
       <c r="S11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
@@ -23779,8 +23847,11 @@
       <c r="S12" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="8" t="s">
         <v>460</v>
       </c>
@@ -23832,8 +23903,9 @@
       <c r="S13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="25" t="s">
         <v>114</v>
       </c>
@@ -23882,13 +23954,16 @@
       </c>
       <c r="Q14" s="34"/>
       <c r="R14" s="5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="S14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>25</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="8" t="s">
         <v>250</v>
       </c>
@@ -23940,8 +24015,11 @@
       <c r="S15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="8" t="s">
         <v>253</v>
       </c>
@@ -23993,8 +24071,11 @@
       <c r="S16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="8" t="s">
         <v>122</v>
       </c>
@@ -24041,13 +24122,16 @@
         <v>128</v>
       </c>
       <c r="R17" s="5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>31</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="8" t="s">
         <v>287</v>
       </c>
@@ -24102,8 +24186,9 @@
       <c r="S18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="8" t="s">
         <v>34</v>
       </c>
@@ -24158,8 +24243,11 @@
       <c r="S19" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="8" t="s">
         <v>301</v>
       </c>
@@ -24209,8 +24297,9 @@
       <c r="S20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="8" t="s">
         <v>213</v>
       </c>
@@ -24268,8 +24357,9 @@
       <c r="S21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
         <v>343</v>
       </c>
@@ -24323,8 +24413,9 @@
       <c r="S22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="8" t="s">
         <v>150</v>
       </c>
@@ -24371,13 +24462,16 @@
         <v>156</v>
       </c>
       <c r="R23" s="5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>43</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="44" t="s">
         <v>319</v>
       </c>
@@ -24431,8 +24525,9 @@
       <c r="S24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="8" t="s">
         <v>191</v>
       </c>
@@ -24484,8 +24579,9 @@
       <c r="S25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="8" t="s">
         <v>44</v>
       </c>
@@ -24540,8 +24636,11 @@
       <c r="S26" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -24596,8 +24695,11 @@
       <c r="S27" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" s="7" customFormat="1">
+      <c r="T27" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="7" customFormat="1">
       <c r="A28" s="25" t="s">
         <v>418</v>
       </c>
@@ -24653,8 +24755,9 @@
       <c r="S28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="5" t="s">
         <v>339</v>
       </c>
@@ -24708,8 +24811,9 @@
       <c r="S29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
@@ -24756,13 +24860,16 @@
         <v>135</v>
       </c>
       <c r="R30" s="5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>21</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="25" t="s">
         <v>269</v>
       </c>
@@ -24818,8 +24925,11 @@
       <c r="S31" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="8" t="s">
         <v>334</v>
       </c>
@@ -24874,8 +24984,11 @@
       <c r="S32" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="8" t="s">
         <v>90</v>
       </c>
@@ -24927,8 +25040,11 @@
       <c r="S33" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="25" t="s">
         <v>98</v>
       </c>
@@ -24984,8 +25100,11 @@
       <c r="S34" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="8" t="s">
         <v>105</v>
       </c>
@@ -25037,8 +25156,11 @@
       <c r="S35" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="8" t="s">
         <v>80</v>
       </c>
@@ -25093,8 +25215,11 @@
       <c r="S36" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="25" t="s">
         <v>157</v>
       </c>
@@ -25143,13 +25268,16 @@
       </c>
       <c r="Q37" s="34"/>
       <c r="R37" s="5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>45</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="8" t="s">
         <v>165</v>
       </c>
@@ -25199,13 +25327,16 @@
         <v>164</v>
       </c>
       <c r="R38" s="5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>41</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="8" t="s">
         <v>74</v>
       </c>
@@ -25260,8 +25391,11 @@
       <c r="S39" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="8" t="s">
         <v>294</v>
       </c>
@@ -25316,8 +25450,9 @@
       <c r="S40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="8" t="s">
         <v>497</v>
       </c>
@@ -25372,8 +25507,11 @@
       <c r="S41" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="8" t="s">
         <v>176</v>
       </c>
@@ -25425,8 +25563,11 @@
       <c r="S42" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="8" t="s">
         <v>203</v>
       </c>
@@ -25478,8 +25619,9 @@
       <c r="S43" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="8" t="s">
         <v>208</v>
       </c>
@@ -25531,8 +25673,9 @@
       <c r="S44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="25" t="s">
         <v>230</v>
       </c>
@@ -25588,8 +25731,9 @@
       <c r="S45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="8" t="s">
         <v>298</v>
       </c>
@@ -25641,8 +25785,9 @@
       <c r="S46" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="8" t="s">
         <v>325</v>
       </c>
@@ -25697,8 +25842,9 @@
       <c r="S47" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="8" t="s">
         <v>168</v>
       </c>
@@ -25745,13 +25891,16 @@
         <v>175</v>
       </c>
       <c r="R48" s="5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>51</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="25" t="s">
         <v>259</v>
       </c>
@@ -25805,8 +25954,9 @@
       <c r="S49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="8" t="s">
         <v>220</v>
       </c>
@@ -25858,8 +26008,9 @@
       <c r="S50" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="8" t="s">
         <v>283</v>
       </c>
@@ -25911,8 +26062,9 @@
       <c r="S51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="8" t="s">
         <v>67</v>
       </c>
@@ -25967,8 +26119,11 @@
       <c r="S52" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="8" t="s">
         <v>490</v>
       </c>
@@ -26021,8 +26176,11 @@
       <c r="S53" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="8" t="s">
         <v>136</v>
       </c>
@@ -26069,13 +26227,16 @@
         <v>142</v>
       </c>
       <c r="R54" s="5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S54" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>11</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="25" t="s">
         <v>306</v>
       </c>
@@ -26127,8 +26288,9 @@
       <c r="S55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="5" t="s">
         <v>336</v>
       </c>
@@ -26182,8 +26344,9 @@
       <c r="S56" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" s="7" customFormat="1">
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20" s="7" customFormat="1">
       <c r="A57" s="5" t="s">
         <v>520</v>
       </c>
@@ -26235,8 +26398,11 @@
       <c r="S57" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="8" t="s">
         <v>108</v>
       </c>
@@ -26287,6 +26453,9 @@
       </c>
       <c r="S58" s="5">
         <v>65</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/LPC Network Map/Resources/Workstation Inventory.xlsx
+++ b/LPC Network Map/Resources/Workstation Inventory.xlsx
@@ -18,7 +18,7 @@
     <sheet name="DeviceList" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DeviceList!$R$1:$S$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DeviceList!$P$1:$Q$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'PC Inventory-by Computer'!$A$6:$Q$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'PC Inventory-by user'!$A$1:$Q$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'PC Inventory-by user-Glen'!$A$1:$P$71</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="555">
   <si>
     <t>User</t>
   </si>
@@ -1608,9 +1608,6 @@
     <t>Jeff's Office</t>
   </si>
   <si>
-    <t>LANDMARK\Jeff</t>
-  </si>
-  <si>
     <t>Architecture</t>
   </si>
   <si>
@@ -1627,6 +1624,75 @@
   </si>
   <si>
     <t>2nd Floor</t>
+  </si>
+  <si>
+    <t>Gregg Suver's Old Laptop</t>
+  </si>
+  <si>
+    <t>Thermoforming</t>
+  </si>
+  <si>
+    <t>QAD Station</t>
+  </si>
+  <si>
+    <t>Hira DeVito's Old Laptop</t>
+  </si>
+  <si>
+    <t>Runs the security cameras</t>
+  </si>
+  <si>
+    <t>Paul Wallbrown's old desktop</t>
+  </si>
+  <si>
+    <t>salesvp2013</t>
+  </si>
+  <si>
+    <t>ENVY Pro 4-b000 Ultrabook</t>
+  </si>
+  <si>
+    <t>i5 1.70 GHz</t>
+  </si>
+  <si>
+    <t>CNU348933K</t>
+  </si>
+  <si>
+    <t>i5 4200U @ 1.60 GHz</t>
+  </si>
+  <si>
+    <t>Brent's old laptop</t>
+  </si>
+  <si>
+    <t>Bob2011</t>
+  </si>
+  <si>
+    <t>3.1GB</t>
+  </si>
+  <si>
+    <t>Replaced FloridaJoy</t>
+  </si>
+  <si>
+    <t>LAPTOP-U0EQTOM9</t>
+  </si>
+  <si>
+    <t>Ann Haas</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Zenbook Pro N501VW</t>
+  </si>
+  <si>
+    <t>Windows 10 Professional</t>
+  </si>
+  <si>
+    <t>i7-6700HQ @ 2.60 GHz</t>
+  </si>
+  <si>
+    <t>Ann's Office</t>
+  </si>
+  <si>
+    <t>Graphic design laptop</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1999,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="135">
+  <dxfs count="131">
     <dxf>
       <font>
         <b val="0"/>
@@ -2085,35 +2151,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2452,50 +2489,6 @@
         <color auto="1"/>
       </font>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -9734,13 +9727,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9789,13 +9782,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9844,13 +9837,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9899,13 +9892,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9954,13 +9947,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10009,13 +10002,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10064,13 +10057,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10119,13 +10112,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10174,13 +10167,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10229,13 +10222,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10284,13 +10277,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10339,13 +10332,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10394,13 +10387,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10449,13 +10442,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10504,13 +10497,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10559,13 +10552,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10614,13 +10607,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10669,13 +10662,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10724,13 +10717,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10779,13 +10772,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10834,13 +10827,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10889,13 +10882,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10944,13 +10937,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10999,13 +10992,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11054,13 +11047,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11109,13 +11102,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11164,14 +11157,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11219,7 +11212,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11267,9 +11260,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11317,9 +11310,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11367,9 +11360,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11417,9 +11410,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11467,9 +11460,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11517,9 +11510,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11569,89 +11562,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A6:R67" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A6:R67" headerRowDxfId="130" dataDxfId="129">
   <autoFilter ref="A6:R67"/>
   <sortState ref="A7:R67">
     <sortCondition ref="B6:B67"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" name="System Name" totalsRowLabel="Total" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="2" name="User" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="15" name="Username" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="6" name="Make" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="7" name="Model" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="14" name="Machine Type" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="5" name="Serial" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="8" name="Department" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="10" name="OS" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="16" name="Processor" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="4" name="Memory" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="17" name="System Type" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="19" name="Office Version" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="11" name="BIOS Date" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="12" name="Office 365 License" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="13" name="Location" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="9" name="Notes" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="3" name="Column1" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="1" name="System Name" totalsRowLabel="Total" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="2" name="User" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="15" name="Username" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="6" name="Make" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="7" name="Model" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="14" name="Machine Type" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="5" name="Serial" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="8" name="Department" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="10" name="OS" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="16" name="Processor" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="4" name="Memory" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="17" name="System Type" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="19" name="Office Version" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="11" name="BIOS Date" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="12" name="Office 365 License" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="13" name="Location" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="9" name="Notes" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="3" name="Column1" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table32" displayName="Table32" ref="A1:R76" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table32" displayName="Table32" ref="A1:R76" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A1:R76"/>
   <sortState ref="A2:R76">
     <sortCondition ref="B1:B76"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" name="System Name" dataDxfId="94"/>
-    <tableColumn id="2" name="User" dataDxfId="93"/>
-    <tableColumn id="15" name="Username" dataDxfId="92"/>
-    <tableColumn id="6" name="Make" dataDxfId="91"/>
-    <tableColumn id="7" name="Model" dataDxfId="90"/>
-    <tableColumn id="14" name="Machine Type" dataDxfId="89"/>
-    <tableColumn id="5" name="Serial" dataDxfId="88"/>
-    <tableColumn id="8" name="Department" dataDxfId="87"/>
-    <tableColumn id="10" name="OS" dataDxfId="86"/>
-    <tableColumn id="16" name="Processor" dataDxfId="85"/>
-    <tableColumn id="4" name="Memory" dataDxfId="84"/>
-    <tableColumn id="17" name="System Type" dataDxfId="83"/>
-    <tableColumn id="19" name="Office Version" dataDxfId="82"/>
-    <tableColumn id="11" name="BIOS Date" dataDxfId="81"/>
-    <tableColumn id="12" name="Office 365 License" dataDxfId="80"/>
-    <tableColumn id="13" name="Location" dataDxfId="79"/>
-    <tableColumn id="9" name="Notes" dataDxfId="78"/>
-    <tableColumn id="3" name="Column1" dataDxfId="77"/>
+    <tableColumn id="1" name="System Name" dataDxfId="90"/>
+    <tableColumn id="2" name="User" dataDxfId="89"/>
+    <tableColumn id="15" name="Username" dataDxfId="88"/>
+    <tableColumn id="6" name="Make" dataDxfId="87"/>
+    <tableColumn id="7" name="Model" dataDxfId="86"/>
+    <tableColumn id="14" name="Machine Type" dataDxfId="85"/>
+    <tableColumn id="5" name="Serial" dataDxfId="84"/>
+    <tableColumn id="8" name="Department" dataDxfId="83"/>
+    <tableColumn id="10" name="OS" dataDxfId="82"/>
+    <tableColumn id="16" name="Processor" dataDxfId="81"/>
+    <tableColumn id="4" name="Memory" dataDxfId="80"/>
+    <tableColumn id="17" name="System Type" dataDxfId="79"/>
+    <tableColumn id="19" name="Office Version" dataDxfId="78"/>
+    <tableColumn id="11" name="BIOS Date" dataDxfId="77"/>
+    <tableColumn id="12" name="Office 365 License" dataDxfId="76"/>
+    <tableColumn id="13" name="Location" dataDxfId="75"/>
+    <tableColumn id="9" name="Notes" dataDxfId="74"/>
+    <tableColumn id="3" name="Column1" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table323" displayName="Table323" ref="A1:Q71" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table323" displayName="Table323" ref="A1:Q71" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A1:Q71"/>
   <sortState ref="A2:Q71">
     <sortCondition ref="B1:B71"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="System Name" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="2" name="User" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="15" name="Username" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="6" name="Make" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="7" name="Model" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="14" name="Machine Type" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="5" name="Serial" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="8" name="Department" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="10" name="OS" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="16" name="Processor" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="4" name="Memory" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="17" name="System Type" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="11" name="BIOS Date" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="12" name="Office 365 License" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="13" name="Location" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="3" name="Monthy License Cost" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Comma"/>
-    <tableColumn id="9" name="3/9/2016" dataDxfId="42" dataCellStyle="Comma">
+    <tableColumn id="1" name="System Name" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="2" name="User" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="15" name="Username" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="6" name="Make" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="7" name="Model" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="14" name="Machine Type" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" name="Serial" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="8" name="Department" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="10" name="OS" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="16" name="Processor" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="4" name="Memory" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="17" name="System Type" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="11" name="BIOS Date" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="12" name="Office 365 License" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="13" name="Location" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="3" name="Monthy License Cost" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Comma"/>
+    <tableColumn id="9" name="3/9/2016" dataDxfId="38" dataCellStyle="Comma">
       <calculatedColumnFormula>YEAR(Table323[[#Headers],[3/9/2016]])-YEAR(Table323[[#This Row],[BIOS Date]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11660,27 +11653,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:T58" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:T58"/>
-  <sortState ref="A2:S57">
-    <sortCondition ref="B1:B57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:R61" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A1:R61"/>
+  <sortState ref="A2:R61">
+    <sortCondition ref="B1:B61"/>
   </sortState>
-  <tableColumns count="20">
-    <tableColumn id="1" name="Device Name" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" name="User" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="15" name="Username" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="6" name="Make" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="7" name="Model" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="14" name="Type" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="5" name="Serial" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="Department" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="OS" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="16" name="Processor" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" name="Memory" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="17" name="Architecture" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="19" name="Office Version" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="11" name="BIOS Date" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="12" name="Office 365 License" dataDxfId="11" totalsRowDxfId="10"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Device Name" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" name="User" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="6" name="Make" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="7" name="Model" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="14" name="Type" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="5" name="Serial" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="8" name="Department" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="10" name="OS" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="16" name="Processor" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="4" name="Memory" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="17" name="Architecture" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="19" name="Office Version" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="11" name="BIOS Date" dataDxfId="11" totalsRowDxfId="10"/>
     <tableColumn id="13" name="Location" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="9" name="Notes" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="3" name="XCoord" dataDxfId="5" totalsRowDxfId="4"/>
@@ -23127,3357 +23118,3275 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41" style="21" customWidth="1"/>
-    <col min="18" max="19" width="17.28515625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="41" style="21" customWidth="1"/>
+    <col min="16" max="17" width="17.28515625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:18">
       <c r="A1" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>7</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>528</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="R1" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="T1" s="47" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="8" t="s">
         <v>248</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>239</v>
+        <v>507</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="9">
+        <v>41633</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="9">
+        <v>38824</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="M4" s="40">
+        <v>41779</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="9">
+        <v>40772</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="7" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" s="9">
+        <v>41471</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="M7" s="13">
+        <v>41556</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" s="7" customFormat="1">
+      <c r="A8" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="9">
+        <v>38589</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="9">
+        <v>41541</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="8">
+        <v>39759</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="M11" s="13">
+        <v>42305</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="P11" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>68</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M12" s="9">
+        <v>42088</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>23</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M13" s="9">
+        <v>40050</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>36</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="25">
+        <v>2003</v>
+      </c>
+      <c r="M14" s="26">
+        <v>37769</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="P14" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>69</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="13">
+        <v>42402</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M16" s="9">
+        <v>41001</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>57</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="8">
+        <v>41541</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="25">
+        <v>2007</v>
+      </c>
+      <c r="M18" s="26">
+        <v>39515</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="5">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>25</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M19" s="9">
+        <v>41948</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>31</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="9">
+        <v>39515</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="M21" s="25">
+        <v>41835</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="34"/>
+      <c r="P21" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>46</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M22" s="9">
+        <v>41887</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>50</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="9">
+        <v>39666</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="9">
+        <v>38490</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="13">
+        <v>42402</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="O25" s="22"/>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="9">
+        <v>41662</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>43</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="45">
+        <v>41101</v>
+      </c>
+      <c r="N27" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="O27" s="46"/>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="9">
+        <v>41948</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" s="7" customFormat="1">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M29" s="9">
+        <v>41502</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="21"/>
+      <c r="P29" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>46</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M30" s="8">
+        <v>41723</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="5">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>34</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="26">
+        <v>39478</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="13">
+        <v>42397</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O32" s="22"/>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="O33" s="22"/>
+      <c r="P33" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>62</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M34" s="9">
+        <v>41835</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="P34" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>21</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="8" customFormat="1">
+      <c r="A35" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="25">
+        <v>2007</v>
+      </c>
+      <c r="M35" s="26">
+        <v>39511</v>
+      </c>
+      <c r="N35" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="O35" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="P35" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>63</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M36" s="9">
+        <v>41541</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>48</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M37" s="9">
+        <v>41835</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" s="5">
+        <v>55</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>69</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="26">
+        <v>39687</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="O38" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="P38" s="5">
+        <v>69</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>45</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M39" s="9">
+        <v>40907</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P39" s="5">
+        <v>67</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>45</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M40" s="9">
+        <v>40743</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>33</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="O41" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="P41" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>45</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M42" s="8">
+        <v>41984</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P42" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>41</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M43" s="9">
+        <v>41400</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>14</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" s="9">
+        <v>40907</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0</v>
+      </c>
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M45" s="8">
+        <v>38824</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="P45" s="5">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>68</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M46" s="9">
+        <v>42013</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="P46" s="5">
+        <v>69</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>34</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" s="9">
+        <v>40735</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0</v>
+      </c>
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="1:18" s="7" customFormat="1">
+      <c r="A48" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K48" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" s="25">
+        <v>2003</v>
+      </c>
+      <c r="M48" s="26">
+        <v>36314</v>
+      </c>
+      <c r="N48" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O48" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>0</v>
+      </c>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="8">
+        <v>2013</v>
+      </c>
+      <c r="M49" s="9">
+        <v>41984</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0</v>
+      </c>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="M50" s="9">
+        <v>41001</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0</v>
+      </c>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="F51" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="H51" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="I51" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K51" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="L51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="9">
+      <c r="M51" s="9">
         <v>41633</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="N51" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="P51" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>51</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="26">
+        <v>38447</v>
+      </c>
+      <c r="N52" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="R2" s="5">
+      <c r="O52" s="34"/>
+      <c r="P52" s="5">
         <v>0</v>
       </c>
-      <c r="S2" s="5">
+      <c r="Q52" s="5">
         <v>0</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="8">
+        <v>2007</v>
+      </c>
+      <c r="M53" s="9">
+        <v>41001</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>0</v>
+      </c>
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" s="9">
+        <v>41001</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>0</v>
+      </c>
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M55" s="9">
+        <v>41471</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>14</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8">
+        <v>69</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>68</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M57" s="8">
+        <v>41565</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="P57" s="5">
+        <v>47</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>19</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M58" s="9">
+        <v>39867</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="P58" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="5">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="R58" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="F59" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="K59" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L59" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M59" s="26">
+        <v>36394</v>
+      </c>
+      <c r="N59" s="25"/>
+      <c r="O59" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>0</v>
+      </c>
+      <c r="R59" s="5"/>
+    </row>
+    <row r="60" spans="1:18" s="7" customFormat="1">
+      <c r="A60" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="I60" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="N3" s="9">
-        <v>41887</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="35">
-        <v>14</v>
-      </c>
-      <c r="S3" s="5">
-        <v>48</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="K60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" s="13">
+        <v>42402</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="O60" s="22"/>
+      <c r="P60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>0</v>
+      </c>
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="D61" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="F61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="I61" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K61" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="9">
-        <v>38589</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>507</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="38" t="s">
+      <c r="L61" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="N5" s="40">
-        <v>41779</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="P5" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>510</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="9">
-        <v>41541</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="8">
-        <v>39759</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="9">
-        <v>42088</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="R8" s="5">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5">
-        <v>24</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="9">
-        <v>40050</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="R9" s="5">
-        <v>19</v>
-      </c>
-      <c r="S9" s="5">
-        <v>36</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="25">
-        <v>2003</v>
-      </c>
-      <c r="N10" s="26">
-        <v>37769</v>
-      </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>454</v>
-      </c>
-      <c r="R10" s="5">
-        <v>31</v>
-      </c>
-      <c r="S10" s="5">
-        <v>65</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="13">
-        <v>42402</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
-        <v>0</v>
-      </c>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="9">
-        <v>41001</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="5">
-        <v>1</v>
-      </c>
-      <c r="S12" s="5">
-        <v>55</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="8">
-        <v>41541</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
-        <v>0</v>
-      </c>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="25">
-        <v>2007</v>
-      </c>
-      <c r="N14" s="26">
-        <v>39515</v>
-      </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="5">
-        <v>23</v>
-      </c>
-      <c r="S14" s="5">
-        <v>25</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="9">
-        <v>38824</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
-        <v>0</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="9">
-        <v>40772</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <v>0</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="9">
-        <v>41948</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="R17" s="5">
-        <v>53</v>
-      </c>
-      <c r="S17" s="5">
-        <v>31</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="9">
-        <v>39515</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5">
-        <v>0</v>
-      </c>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="8">
-        <v>41835</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R19" s="5">
-        <v>14</v>
-      </c>
-      <c r="S19" s="5">
-        <v>45</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="9">
-        <v>39666</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="R20" s="5">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
-        <v>0</v>
-      </c>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="9">
-        <v>38490</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q21" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="R21" s="5">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <v>0</v>
-      </c>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="13">
-        <v>42402</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="5">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
-        <v>0</v>
-      </c>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="9">
-        <v>41662</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="R23" s="5">
-        <v>19</v>
-      </c>
-      <c r="S23" s="5">
-        <v>43</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="I24" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="45">
-        <v>41101</v>
-      </c>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="5">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5">
-        <v>0</v>
-      </c>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="9">
-        <v>41948</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="R25" s="5">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
-        <v>0</v>
-      </c>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="M61" s="9">
+        <v>41625</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P61" s="5">
         <v>46</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="9">
-        <v>41502</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="R26" s="5">
-        <v>7</v>
-      </c>
-      <c r="S26" s="5">
-        <v>44</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" s="8">
-        <v>41723</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" s="5">
-        <v>48</v>
-      </c>
-      <c r="S27" s="5">
-        <v>34</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="7" customFormat="1">
-      <c r="A28" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="26">
-        <v>39478</v>
-      </c>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q28" s="34" t="s">
-        <v>453</v>
-      </c>
-      <c r="R28" s="5">
-        <v>0</v>
-      </c>
-      <c r="S28" s="5">
-        <v>0</v>
-      </c>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="13">
-        <v>42397</v>
-      </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="5">
-        <v>0</v>
-      </c>
-      <c r="S29" s="5">
-        <v>0</v>
-      </c>
-      <c r="T29" s="5"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="9">
-        <v>41835</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R30" s="5">
-        <v>53</v>
-      </c>
-      <c r="S30" s="5">
-        <v>21</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="L31" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="25">
-        <v>2007</v>
-      </c>
-      <c r="N31" s="26">
-        <v>39511</v>
-      </c>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q31" s="34" t="s">
-        <v>455</v>
-      </c>
-      <c r="R31" s="5">
-        <v>31</v>
-      </c>
-      <c r="S31" s="5">
-        <v>60</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="9">
-        <v>41541</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R32" s="5">
-        <v>1</v>
-      </c>
-      <c r="S32" s="5">
-        <v>47</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N33" s="9">
-        <v>41835</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="R33" s="5">
-        <v>55</v>
-      </c>
-      <c r="S33" s="5">
-        <v>65</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="26">
-        <v>39687</v>
-      </c>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q34" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="R34" s="5">
+      <c r="Q61" s="5">
         <v>69</v>
       </c>
-      <c r="S34" s="5">
-        <v>44</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" s="9">
-        <v>40907</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="R35" s="5">
-        <v>67</v>
-      </c>
-      <c r="S35" s="5">
-        <v>44</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N36" s="9">
-        <v>40743</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="R36" s="5">
-        <v>1</v>
-      </c>
-      <c r="S36" s="5">
-        <v>34</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="K37" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="L37" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="N37" s="26">
-        <v>39149</v>
-      </c>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="5">
-        <v>53</v>
-      </c>
-      <c r="S37" s="5">
-        <v>45</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="8">
-        <v>41984</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="R38" s="5">
-        <v>53</v>
-      </c>
-      <c r="S38" s="5">
-        <v>41</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N39" s="9">
-        <v>41400</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R39" s="5">
-        <v>10</v>
-      </c>
-      <c r="S39" s="5">
-        <v>16</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="9">
-        <v>40907</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="R40" s="5">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5">
-        <v>0</v>
-      </c>
-      <c r="T40" s="5"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="N41" s="8">
-        <v>38824</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="R41" s="5">
-        <v>37</v>
-      </c>
-      <c r="S41" s="5">
-        <v>65</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="9">
-        <v>42013</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="R42" s="5">
-        <v>69</v>
-      </c>
-      <c r="S42" s="5">
-        <v>34</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="N43" s="9">
-        <v>41471</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="R43" s="5">
-        <v>0</v>
-      </c>
-      <c r="S43" s="5">
-        <v>0</v>
-      </c>
-      <c r="T43" s="5"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N44" s="9">
-        <v>40735</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="R44" s="5">
-        <v>0</v>
-      </c>
-      <c r="S44" s="5">
-        <v>0</v>
-      </c>
-      <c r="T44" s="5"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="K45" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="L45" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="25">
-        <v>2003</v>
-      </c>
-      <c r="N45" s="26">
-        <v>36314</v>
-      </c>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q45" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="R45" s="5">
-        <v>0</v>
-      </c>
-      <c r="S45" s="5">
-        <v>0</v>
-      </c>
-      <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M46" s="8">
-        <v>2013</v>
-      </c>
-      <c r="N46" s="9">
-        <v>41984</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="R46" s="5">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5">
-        <v>0</v>
-      </c>
-      <c r="T46" s="5"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="N47" s="9">
-        <v>41001</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q47" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="R47" s="5">
-        <v>0</v>
-      </c>
-      <c r="S47" s="5">
-        <v>0</v>
-      </c>
-      <c r="T47" s="5"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" s="9">
-        <v>41633</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="R48" s="5">
-        <v>53</v>
-      </c>
-      <c r="S48" s="5">
-        <v>51</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I49" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="K49" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L49" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="26">
-        <v>38447</v>
-      </c>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="5">
-        <v>0</v>
-      </c>
-      <c r="S49" s="5">
-        <v>0</v>
-      </c>
-      <c r="T49" s="5"/>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="8">
-        <v>2007</v>
-      </c>
-      <c r="N50" s="9">
-        <v>41001</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="R50" s="5">
-        <v>0</v>
-      </c>
-      <c r="S50" s="5">
-        <v>0</v>
-      </c>
-      <c r="T50" s="5"/>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N51" s="9">
-        <v>41001</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="R51" s="5">
-        <v>0</v>
-      </c>
-      <c r="S51" s="5">
-        <v>0</v>
-      </c>
-      <c r="T51" s="5"/>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N52" s="9">
-        <v>41471</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R52" s="5">
-        <v>16</v>
-      </c>
-      <c r="S52" s="5">
-        <v>16</v>
-      </c>
-      <c r="T52" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="N53" s="8">
-        <v>41565</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P53" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="R53" s="5">
-        <v>47</v>
-      </c>
-      <c r="S53" s="5">
-        <v>21</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N54" s="9">
-        <v>39867</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="R54" s="5">
-        <v>53</v>
-      </c>
-      <c r="S54" s="5">
-        <v>11</v>
-      </c>
-      <c r="T54" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="L55" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="N55" s="26">
-        <v>36394</v>
-      </c>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="34" t="s">
-        <v>503</v>
-      </c>
-      <c r="R55" s="5">
-        <v>0</v>
-      </c>
-      <c r="S55" s="5">
-        <v>0</v>
-      </c>
-      <c r="T55" s="5"/>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="13">
-        <v>42402</v>
-      </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="5">
-        <v>0</v>
-      </c>
-      <c r="S56" s="5">
-        <v>0</v>
-      </c>
-      <c r="T56" s="5"/>
-    </row>
-    <row r="57" spans="1:20" s="7" customFormat="1">
-      <c r="A57" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="N57" s="13"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="43" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="5">
-        <v>13</v>
-      </c>
-      <c r="S57" s="5">
-        <v>59</v>
-      </c>
-      <c r="T57" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N58" s="9">
-        <v>41625</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="R58" s="5">
-        <v>46</v>
-      </c>
-      <c r="S58" s="5">
-        <v>65</v>
-      </c>
-      <c r="T58" s="5" t="s">
-        <v>531</v>
+      <c r="R61" s="5" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26530,15 +26439,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB96730-BCD8-45B8-B442-F17BA784685B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C6FC57-AB43-434E-B85C-846B864642A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26559,15 +26477,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C6FC57-AB43-434E-B85C-846B864642A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB96730-BCD8-45B8-B442-F17BA784685B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LPC Network Map/Resources/Workstation Inventory.xlsx
+++ b/LPC Network Map/Resources/Workstation Inventory.xlsx
@@ -18,7 +18,7 @@
     <sheet name="DeviceList" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DeviceList!$P$1:$Q$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DeviceList!$P$1:$Q$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'PC Inventory-by Computer'!$A$6:$Q$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'PC Inventory-by user'!$A$1:$Q$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'PC Inventory-by user-Glen'!$A$1:$P$71</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="562">
   <si>
     <t>User</t>
   </si>
@@ -1693,6 +1693,27 @@
   </si>
   <si>
     <t>Graphic design laptop</t>
+  </si>
+  <si>
+    <t>Jon Boldon</t>
+  </si>
+  <si>
+    <t>Elitebook</t>
+  </si>
+  <si>
+    <t>Jon's Office</t>
+  </si>
+  <si>
+    <t>Joe's Office</t>
+  </si>
+  <si>
+    <t>Joe Donley</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Unknown1</t>
   </si>
 </sst>
 </file>
@@ -9727,13 +9748,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9782,13 +9803,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9837,13 +9858,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9947,13 +9968,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10002,13 +10023,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10057,13 +10078,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10112,13 +10133,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10167,13 +10188,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10222,13 +10243,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10277,13 +10298,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10332,13 +10353,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10387,13 +10408,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10442,13 +10463,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10497,13 +10518,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10552,13 +10573,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10607,13 +10628,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10662,13 +10683,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10717,13 +10738,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10772,13 +10793,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10827,13 +10848,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10882,13 +10903,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10937,13 +10958,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10992,13 +11013,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11102,13 +11123,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11157,13 +11178,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11212,7 +11233,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11262,7 +11283,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11312,7 +11333,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11362,7 +11383,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11412,7 +11433,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11462,7 +11483,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11512,7 +11533,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11653,10 +11674,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:R61" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A1:R61"/>
-  <sortState ref="A2:R61">
-    <sortCondition ref="B1:B61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:R63" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A1:R63"/>
+  <sortState ref="A2:R63">
+    <sortCondition ref="A1:A63"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" name="Device Name" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34"/>
@@ -11950,7 +11971,7 @@
   </sheetPr>
   <dimension ref="A2:U68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:R68"/>
     </sheetView>
   </sheetViews>
@@ -19536,7 +19557,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="20.25" customHeight="1"/>
@@ -23118,11 +23139,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23257,102 +23278,99 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="8" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>507</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>251</v>
+        <v>48</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M3" s="9">
+        <v>41502</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="5">
+        <v>174</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>579</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="9">
-        <v>38824</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>507</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="M4" s="40">
-        <v>41779</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>532</v>
+      <c r="M4" s="9">
+        <v>39515</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
@@ -23363,61 +23381,62 @@
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="F5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="9">
-        <v>40772</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>244</v>
-      </c>
+      <c r="L5" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="M5" s="25">
+        <v>41835</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="34"/>
       <c r="P5" s="5">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="5">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>507</v>
@@ -23426,94 +23445,91 @@
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>533</v>
+        <v>173</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="M6" s="9">
-        <v>41471</v>
+        <v>38824</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>536</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O6" s="21"/>
       <c r="P6" s="5">
         <v>0</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="R6" s="5" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="D7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M7" s="13">
-        <v>41556</v>
-      </c>
-      <c r="N7" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>543</v>
+      <c r="K7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="9">
+        <v>41948</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -23525,22 +23541,22 @@
     </row>
     <row r="8" spans="1:18" s="7" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>507</v>
+        <v>144</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>173</v>
@@ -23549,7 +23565,7 @@
         <v>49</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>103</v>
@@ -23558,118 +23574,124 @@
         <v>41</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>42</v>
+        <v>495</v>
       </c>
       <c r="M8" s="9">
-        <v>38589</v>
+        <v>40050</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="O8" s="21"/>
       <c r="P8" s="5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="A9" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="F9" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="9">
-        <v>41541</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>184</v>
+      <c r="M9" s="5"/>
+      <c r="N9" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>546</v>
       </c>
       <c r="P9" s="5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="H10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="8">
-        <v>39759</v>
-      </c>
-      <c r="N10" s="8" t="s">
+      <c r="L10" s="25">
+        <v>2003</v>
+      </c>
+      <c r="M10" s="26">
+        <v>36314</v>
+      </c>
+      <c r="N10" s="25" t="s">
         <v>218</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
@@ -23680,77 +23702,76 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="M11" s="13">
-        <v>42305</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>554</v>
+      <c r="A11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="9">
+        <v>41633</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="P11" s="5">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="5">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="8" t="s">
-        <v>512</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>509</v>
+        <v>53</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>24</v>
@@ -23759,31 +23780,28 @@
         <v>49</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>495</v>
       </c>
       <c r="M12" s="9">
-        <v>42088</v>
+        <v>41001</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>535</v>
+        <v>60</v>
       </c>
       <c r="P12" s="5">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="5">
-        <v>23</v>
+        <v>720</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>530</v>
@@ -23791,213 +23809,215 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="8" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="M13" s="9">
-        <v>40050</v>
+      <c r="M13" s="8">
+        <v>41723</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="P13" s="5">
-        <v>19</v>
+        <v>1074</v>
       </c>
       <c r="Q13" s="5">
-        <v>36</v>
+        <v>431</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="25" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>266</v>
+        <v>119</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="25">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="M14" s="26">
-        <v>37769</v>
+        <v>39515</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>454</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O14" s="34"/>
       <c r="P14" s="5">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="5">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="8" t="s">
-        <v>341</v>
+        <v>90</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="F15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>41</v>
       </c>
       <c r="L15" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M15" s="9">
+        <v>41835</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1227</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>869</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="13">
-        <v>42402</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M16" s="9">
-        <v>41001</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>60</v>
+      <c r="M16" s="26">
+        <v>39687</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>456</v>
       </c>
       <c r="P16" s="5">
-        <v>1</v>
+        <v>1549</v>
       </c>
       <c r="Q16" s="5">
-        <v>57</v>
+        <v>569</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>530</v>
@@ -24005,31 +24025,31 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="8" t="s">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>463</v>
+        <v>84</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>13</v>
@@ -24038,103 +24058,100 @@
         <v>41</v>
       </c>
       <c r="L17" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M17" s="9">
+        <v>40743</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>422</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="8">
-        <v>41541</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="P17" s="5">
+      <c r="M18" s="9">
+        <v>39666</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="P18" s="5">
         <v>0</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q18" s="5">
         <v>0</v>
       </c>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="25">
-        <v>2007</v>
-      </c>
-      <c r="M18" s="26">
-        <v>39515</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="5">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>25</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>531</v>
-      </c>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="8" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>123</v>
+        <v>412</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>126</v>
+        <v>333</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>173</v>
+        <v>533</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>13</v>
@@ -24143,54 +24160,52 @@
         <v>41</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>495</v>
+        <v>42</v>
       </c>
       <c r="M19" s="9">
-        <v>41948</v>
+        <v>41541</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P19" s="5">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="5">
-        <v>31</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="8" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>288</v>
+        <v>137</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>533</v>
+        <v>173</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>41</v>
@@ -24199,121 +24214,120 @@
         <v>42</v>
       </c>
       <c r="M20" s="9">
-        <v>39515</v>
+        <v>39867</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>293</v>
+        <v>142</v>
       </c>
       <c r="P20" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>11</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="8">
+        <v>39759</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="P21" s="5">
         <v>0</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q21" s="5">
         <v>0</v>
       </c>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="M21" s="25">
-        <v>41835</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="5">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>46</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>530</v>
-      </c>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="8" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>431</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="M22" s="9">
-        <v>41887</v>
+      <c r="M22" s="8">
+        <v>38824</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="35">
-        <v>14</v>
+        <v>268</v>
+      </c>
+      <c r="P22" s="5">
+        <v>840</v>
       </c>
       <c r="Q22" s="5">
-        <v>50</v>
+        <v>864</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>530</v>
@@ -24321,83 +24335,87 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="8" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>42</v>
+        <v>495</v>
       </c>
       <c r="M23" s="9">
-        <v>39666</v>
-      </c>
-      <c r="N23" s="7"/>
+        <v>41400</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="P23" s="5">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="5">
-        <v>0</v>
-      </c>
-      <c r="R23" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="F24" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>41</v>
@@ -24405,15 +24423,13 @@
       <c r="L24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="9">
-        <v>38490</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="O24" s="21" t="s">
-        <v>219</v>
-      </c>
+      <c r="M24" s="13">
+        <v>42402</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" s="22"/>
       <c r="P24" s="5">
         <v>0</v>
       </c>
@@ -24424,153 +24440,155 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>414</v>
+        <v>520</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>56</v>
+        <v>521</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>344</v>
+        <v>522</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="13">
-        <v>42402</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>282</v>
+        <v>25</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="43" t="s">
+        <v>525</v>
       </c>
       <c r="O25" s="22"/>
       <c r="P25" s="5">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="5">
-        <v>0</v>
-      </c>
-      <c r="R25" s="5"/>
+        <v>789</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="25">
+        <v>2007</v>
+      </c>
+      <c r="M26" s="26">
+        <v>39511</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="O26" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="P26" s="5">
+        <v>706</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>792</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="F27" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="I27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="9">
-        <v>41662</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P26" s="5">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>43</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="J27" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="45">
-        <v>41101</v>
-      </c>
-      <c r="N27" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="O27" s="46"/>
+      <c r="L27" s="8">
+        <v>2013</v>
+      </c>
+      <c r="M27" s="9">
+        <v>41984</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="P27" s="5">
         <v>0</v>
       </c>
@@ -24581,428 +24599,432 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="8" t="s">
-        <v>191</v>
+        <v>512</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>192</v>
+        <v>509</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>533</v>
+        <v>24</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L28" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M28" s="9">
+        <v>42088</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="P28" s="5">
         <v>42</v>
       </c>
-      <c r="M28" s="9">
-        <v>41948</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="P28" s="5">
-        <v>0</v>
-      </c>
       <c r="Q28" s="5">
-        <v>0</v>
-      </c>
-      <c r="R28" s="5"/>
+        <v>293</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="29" spans="1:18" s="7" customFormat="1">
-      <c r="A29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="8" t="s">
+      <c r="A29" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="M29" s="9">
-        <v>41502</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="21"/>
+      <c r="M29" s="13">
+        <v>42305</v>
+      </c>
+      <c r="N29" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>554</v>
+      </c>
       <c r="P29" s="5">
-        <v>7</v>
+        <v>899</v>
       </c>
       <c r="Q29" s="5">
-        <v>46</v>
+        <v>866</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="M30" s="40">
+        <v>41779</v>
+      </c>
+      <c r="N30" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M31" s="9">
+        <v>41887</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="35">
+        <v>313</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>632</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D32" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="F32" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M32" s="9">
+        <v>42013</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1551</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>431</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="8" t="s">
+      <c r="I33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L33" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="M30" s="8">
-        <v>41723</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" s="5">
-        <v>48</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>34</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="C31" s="25" t="s">
+      <c r="M33" s="8">
+        <v>41984</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" s="5">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>41</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="25" t="s">
+      <c r="D34" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="H31" s="25" t="s">
+      <c r="F34" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="J31" s="27" t="s">
+      <c r="I34" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J34" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K34" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L34" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M31" s="26">
-        <v>39478</v>
-      </c>
-      <c r="N31" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="O31" s="34" t="s">
-        <v>453</v>
-      </c>
-      <c r="P31" s="5">
+      <c r="M34" s="26">
+        <v>38447</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" s="34"/>
+      <c r="P34" s="5">
         <v>0</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q34" s="5">
         <v>0</v>
       </c>
-      <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="13">
-        <v>42397</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="43" t="s">
-        <v>525</v>
-      </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="5">
-        <v>13</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>62</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M34" s="9">
-        <v>41835</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="P34" s="5">
-        <v>53</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>21</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>531</v>
-      </c>
+      <c r="R34" s="5"/>
     </row>
     <row r="35" spans="1:18" s="8" customFormat="1">
       <c r="A35" s="25" t="s">
-        <v>269</v>
+        <v>418</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>270</v>
+        <v>419</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>273</v>
+        <v>415</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>95</v>
+        <v>416</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>64</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>275</v>
+        <v>148</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="K35" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="25">
-        <v>2007</v>
+      <c r="L35" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="M35" s="26">
-        <v>39511</v>
+        <v>39478</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c r="O35" s="34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P35" s="5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="5">
-        <v>63</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R35" s="5"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="8" t="s">
@@ -25048,10 +25070,10 @@
         <v>66</v>
       </c>
       <c r="P36" s="5">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="5">
-        <v>48</v>
+        <v>608</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>530</v>
@@ -25059,112 +25081,105 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="8" t="s">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>94</v>
+        <v>297</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>95</v>
+        <v>533</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>41</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>495</v>
+        <v>42</v>
       </c>
       <c r="M37" s="9">
-        <v>41835</v>
+        <v>40907</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>97</v>
+        <v>293</v>
       </c>
       <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q37" s="5">
-        <v>69</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="25" t="s">
+      <c r="D38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K38" s="25" t="s">
+      <c r="F38" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="26">
-        <v>39687</v>
-      </c>
-      <c r="N38" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="O38" s="34" t="s">
-        <v>456</v>
+      <c r="M38" s="9">
+        <v>41001</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="P38" s="5">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="5">
-        <v>45</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="8" t="s">
@@ -25210,45 +25225,45 @@
         <v>104</v>
       </c>
       <c r="P39" s="5">
-        <v>67</v>
+        <v>1492</v>
       </c>
       <c r="Q39" s="5">
-        <v>45</v>
+        <v>569</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" s="7" customFormat="1">
       <c r="A40" s="8" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>41</v>
@@ -25257,70 +25272,71 @@
         <v>495</v>
       </c>
       <c r="M40" s="9">
-        <v>40743</v>
+        <v>41625</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>86</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O40" s="21"/>
       <c r="P40" s="5">
-        <v>1</v>
+        <v>1029</v>
       </c>
       <c r="Q40" s="5">
-        <v>33</v>
+        <v>868</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="5" t="s">
+    <row r="41" spans="1:18" s="7" customFormat="1">
+      <c r="A41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="D41" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="F41" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="K41" s="5" t="s">
+      <c r="H41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="O41" s="22" t="s">
-        <v>546</v>
-      </c>
+      <c r="L41" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M41" s="9">
+        <v>41835</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O41" s="21"/>
       <c r="P41" s="5">
         <v>53</v>
       </c>
       <c r="Q41" s="5">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>531</v>
@@ -25328,52 +25344,52 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="8" t="s">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>158</v>
+        <v>507</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M42" s="8">
-        <v>41984</v>
+        <v>42</v>
+      </c>
+      <c r="M42" s="9">
+        <v>40772</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="P42" s="5">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="5">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>531</v>
@@ -25381,156 +25397,160 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="8" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>24</v>
+        <v>329</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>495</v>
+        <v>42</v>
       </c>
       <c r="M43" s="9">
-        <v>41400</v>
+        <v>38490</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>79</v>
+        <v>218</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="P43" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="5">
-        <v>14</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R43" s="5"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="8" t="s">
-        <v>294</v>
+        <v>490</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>295</v>
+        <v>491</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>533</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>58</v>
+        <v>494</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="K44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M44" s="8">
+        <v>41565</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="P44" s="5">
+        <v>1051</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>248</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="K45" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L44" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M44" s="9">
-        <v>40907</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="P44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M45" s="8">
-        <v>38824</v>
-      </c>
-      <c r="N45" s="8" t="s">
+      <c r="L45" s="25">
+        <v>2003</v>
+      </c>
+      <c r="M45" s="26">
+        <v>37769</v>
+      </c>
+      <c r="N45" s="25" t="s">
         <v>268</v>
       </c>
+      <c r="O45" s="34" t="s">
+        <v>454</v>
+      </c>
       <c r="P45" s="5">
-        <v>37</v>
+        <v>706</v>
       </c>
       <c r="Q45" s="5">
-        <v>68</v>
+        <v>865</v>
       </c>
       <c r="R45" s="5" t="s">
         <v>530</v>
@@ -25538,156 +25558,153 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="8" t="s">
-        <v>176</v>
+        <v>325</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>495</v>
+        <v>207</v>
       </c>
       <c r="M46" s="9">
-        <v>42013</v>
+        <v>41001</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>182</v>
+        <v>330</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>534</v>
       </c>
       <c r="P46" s="5">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="5">
-        <v>34</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R46" s="5"/>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="8" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>533</v>
+        <v>24</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M47" s="9">
-        <v>40735</v>
+        <v>41471</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>537</v>
+        <v>73</v>
       </c>
       <c r="P47" s="5">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="Q47" s="5">
-        <v>0</v>
-      </c>
-      <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="1:18" s="7" customFormat="1">
-      <c r="A48" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="G48" s="25" t="s">
+      <c r="F48" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="K48" s="25" t="s">
+      <c r="H48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L48" s="25">
-        <v>2003</v>
-      </c>
-      <c r="M48" s="26">
-        <v>36314</v>
-      </c>
-      <c r="N48" s="25" t="s">
+      <c r="L48" s="8">
+        <v>2007</v>
+      </c>
+      <c r="M48" s="9">
+        <v>41001</v>
+      </c>
+      <c r="N48" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="O48" s="34" t="s">
-        <v>237</v>
       </c>
       <c r="P48" s="5">
         <v>0</v>
@@ -25699,82 +25716,83 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="8" t="s">
-        <v>298</v>
+        <v>538</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>231</v>
+        <v>433</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>93</v>
+        <v>539</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>300</v>
+        <v>488</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>533</v>
+        <v>95</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>167</v>
+        <v>540</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="8">
-        <v>2013</v>
-      </c>
-      <c r="M49" s="9">
-        <v>41984</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M49" s="8"/>
       <c r="N49" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="P49" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="5">
-        <v>0</v>
-      </c>
-      <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="8" t="s">
-        <v>325</v>
+        <v>496</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8">
+        <v>1547</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>857</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="7" customFormat="1">
+      <c r="A50" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C50" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H50" s="8" t="s">
+      <c r="F50" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>13</v>
@@ -25783,17 +25801,15 @@
         <v>41</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="M50" s="9">
-        <v>41001</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>534</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M50" s="13">
+        <v>42402</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="O50" s="22"/>
       <c r="P50" s="5">
         <v>0</v>
       </c>
@@ -25804,101 +25820,100 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="8" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>173</v>
+        <v>533</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="M51" s="9">
-        <v>41633</v>
+        <v>41471</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>175</v>
+        <v>184</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>536</v>
       </c>
       <c r="P51" s="5">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="5">
-        <v>51</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R51" s="5"/>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="25" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>190</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="I52" s="25"/>
       <c r="J52" s="25" t="s">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="K52" s="25" t="s">
         <v>41</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="M52" s="26">
-        <v>38447</v>
-      </c>
-      <c r="N52" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="O52" s="34"/>
+        <v>36394</v>
+      </c>
+      <c r="N52" s="25"/>
+      <c r="O52" s="34" t="s">
+        <v>503</v>
+      </c>
       <c r="P52" s="5">
         <v>0</v>
       </c>
@@ -25908,28 +25923,28 @@
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="8" t="s">
-        <v>220</v>
+      <c r="A53" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C53" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H53" s="8" t="s">
+      <c r="F53" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I53" s="8" t="s">
@@ -25941,15 +25956,16 @@
       <c r="K53" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L53" s="8">
-        <v>2007</v>
-      </c>
-      <c r="M53" s="9">
-        <v>41001</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="L53" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53" s="13">
+        <v>42397</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O53" s="22"/>
       <c r="P53" s="5">
         <v>0</v>
       </c>
@@ -25960,305 +25976,279 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="8" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M54" s="9">
-        <v>41001</v>
+        <v>41662</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="P54" s="5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q54" s="5">
-        <v>0</v>
-      </c>
-      <c r="R54" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="8" t="s">
-        <v>67</v>
+        <v>460</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>68</v>
+        <v>461</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>71</v>
+        <v>463</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>13</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M55" s="9">
-        <v>41471</v>
+      <c r="M55" s="8">
+        <v>41541</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>73</v>
+        <v>464</v>
       </c>
       <c r="P55" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="5">
-        <v>14</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R55" s="5"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="8" t="s">
-        <v>538</v>
+      <c r="A56" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H56" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>540</v>
+        <v>224</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>41</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8">
-        <v>69</v>
-      </c>
-      <c r="Q56" s="8">
-        <v>68</v>
-      </c>
-      <c r="R56" s="8" t="s">
-        <v>530</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M56" s="13">
+        <v>42402</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="O56" s="22"/>
+      <c r="P56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0</v>
+      </c>
+      <c r="R56" s="5"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M57" s="8">
-        <v>41565</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>496</v>
-      </c>
+      <c r="A57" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="O57" s="22"/>
       <c r="P57" s="5">
-        <v>47</v>
+        <v>1303</v>
       </c>
       <c r="Q57" s="5">
-        <v>19</v>
+        <v>568</v>
       </c>
       <c r="R57" s="5" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="A58" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="8" t="s">
+      <c r="D58" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="M58" s="13"/>
+      <c r="N58" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="O58" s="22"/>
+      <c r="P58" s="5">
+        <v>1237</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>568</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H58" s="8" t="s">
+      <c r="F59" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I58" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K58" s="8" t="s">
+      <c r="I59" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L58" s="8" t="s">
+      <c r="L59" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M58" s="9">
-        <v>39867</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="P58" s="5">
-        <v>53</v>
-      </c>
-      <c r="Q58" s="5">
-        <v>11</v>
-      </c>
-      <c r="R58" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="K59" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L59" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="M59" s="26">
-        <v>36394</v>
-      </c>
-      <c r="N59" s="25"/>
-      <c r="O59" s="34" t="s">
-        <v>503</v>
+      <c r="M59" s="9">
+        <v>40735</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>537</v>
       </c>
       <c r="P59" s="5">
         <v>0</v>
@@ -26268,50 +26258,52 @@
       </c>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="1:18" s="7" customFormat="1">
+    <row r="60" spans="1:18">
       <c r="A60" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>337</v>
+        <v>468</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>507</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>338</v>
+        <v>541</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>305</v>
+        <v>416</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I60" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J60" s="8" t="s">
+      <c r="I60" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J60" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>42</v>
+      <c r="K60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="M60" s="13">
-        <v>42402</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="O60" s="22"/>
+        <v>41556</v>
+      </c>
+      <c r="N60" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O60" s="22" t="s">
+        <v>543</v>
+      </c>
       <c r="P60" s="5">
         <v>0</v>
       </c>
@@ -26322,34 +26314,34 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="8" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>41</v>
@@ -26358,20 +26350,126 @@
         <v>495</v>
       </c>
       <c r="M61" s="9">
-        <v>41625</v>
+        <v>41948</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="P61" s="5">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q61" s="5">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="7" customFormat="1">
+      <c r="A62" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" s="9">
+        <v>38589</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="O62" s="21"/>
+      <c r="P62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>0</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G63" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="H63" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="J63" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M63" s="45">
+        <v>41101</v>
+      </c>
+      <c r="N63" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="O63" s="46"/>
+      <c r="P63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>0</v>
+      </c>
+      <c r="R63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26384,9 +26482,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26439,24 +26540,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C6FC57-AB43-434E-B85C-846B864642A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB96730-BCD8-45B8-B442-F17BA784685B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26477,9 +26569,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB96730-BCD8-45B8-B442-F17BA784685B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C6FC57-AB43-434E-B85C-846B864642A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LPC Network Map/Resources/Workstation Inventory.xlsx
+++ b/LPC Network Map/Resources/Workstation Inventory.xlsx
@@ -18,7 +18,7 @@
     <sheet name="DeviceList" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DeviceList!$P$1:$Q$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DeviceList!$P$1:$Q$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'PC Inventory-by Computer'!$A$6:$Q$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'PC Inventory-by user'!$A$1:$Q$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'PC Inventory-by user-Glen'!$A$1:$P$71</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="570">
   <si>
     <t>User</t>
   </si>
@@ -1714,6 +1714,30 @@
   </si>
   <si>
     <t>Unknown1</t>
+  </si>
+  <si>
+    <t>LPCWin8</t>
+  </si>
+  <si>
+    <t>Sales Conference Room</t>
+  </si>
+  <si>
+    <t>Elitebook 8570p</t>
+  </si>
+  <si>
+    <t>Windows 8 Professional</t>
+  </si>
+  <si>
+    <t>i5-3230M @ 2.60 GHz</t>
+  </si>
+  <si>
+    <t>Used for presentations in sales conf. room</t>
+  </si>
+  <si>
+    <t>nx9005</t>
+  </si>
+  <si>
+    <t>Used for presentations in conf. room</t>
   </si>
 </sst>
 </file>
@@ -2023,24 +2047,6 @@
   <dxfs count="131">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2271,6 +2277,24 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="8"/>
         <color auto="1"/>
         <name val="Verdana"/>
@@ -2307,24 +2331,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2522,18 +2528,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="8"/>
+        <sz val="11"/>
         <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2570,12 +2570,18 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2587,6 +2593,24 @@
         <color auto="1"/>
       </font>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -9748,13 +9772,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9803,13 +9827,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9858,13 +9882,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9913,13 +9937,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9968,13 +9992,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10023,13 +10047,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10078,13 +10102,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10133,13 +10157,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10188,13 +10212,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10243,13 +10267,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10298,13 +10322,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10353,13 +10377,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10408,13 +10432,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10463,13 +10487,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10518,13 +10542,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10573,13 +10597,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10628,13 +10652,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10683,13 +10707,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10738,13 +10762,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10793,13 +10817,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10848,13 +10872,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10903,13 +10927,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10958,13 +10982,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11013,13 +11037,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11068,13 +11092,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11123,13 +11147,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11178,13 +11202,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11233,7 +11257,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11283,7 +11307,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11333,7 +11357,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11383,7 +11407,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11433,7 +11457,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11483,7 +11507,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11533,7 +11557,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133350" cy="133350"/>
@@ -11674,30 +11698,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:R63" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A1:R63"/>
-  <sortState ref="A2:R63">
-    <sortCondition ref="A1:A63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:R65" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A1:R65"/>
+  <sortState ref="A2:R65">
+    <sortCondition ref="B1:B65"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" name="Device Name" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="2" name="User" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="6" name="Make" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="7" name="Model" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="14" name="Type" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="5" name="Serial" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="8" name="Department" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="10" name="OS" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="16" name="Processor" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" name="Memory" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="17" name="Architecture" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="19" name="Office Version" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="11" name="BIOS Date" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="13" name="Location" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="9" name="Notes" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="XCoord" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="18" name="YCoord" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="20" name="Area" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Device Name" totalsRowLabel="Total" dataDxfId="34" totalsRowDxfId="35"/>
+    <tableColumn id="2" name="User" dataDxfId="32" totalsRowDxfId="33"/>
+    <tableColumn id="6" name="Make" dataDxfId="30" totalsRowDxfId="31"/>
+    <tableColumn id="7" name="Model" dataDxfId="28" totalsRowDxfId="29"/>
+    <tableColumn id="14" name="Type" dataDxfId="26" totalsRowDxfId="27"/>
+    <tableColumn id="5" name="Serial" dataDxfId="24" totalsRowDxfId="25"/>
+    <tableColumn id="8" name="Department" dataDxfId="22" totalsRowDxfId="23"/>
+    <tableColumn id="10" name="OS" dataDxfId="20" totalsRowDxfId="21"/>
+    <tableColumn id="16" name="Processor" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="4" name="Memory" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="Architecture" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="Office Version" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="11" name="BIOS Date" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="13" name="Location" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Notes" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="XCoord" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="18" name="YCoord" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="20" name="Area" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23139,11 +23163,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A60" sqref="A60"/>
+      <selection pane="topRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23278,99 +23302,102 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>507</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>246</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="9">
+        <v>38824</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L4" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="M3" s="9">
-        <v>41502</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="5">
-        <v>174</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>579</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="9">
-        <v>39515</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>293</v>
+      <c r="M4" s="40">
+        <v>41779</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>532</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
@@ -23381,62 +23408,61 @@
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="25" t="s">
+      <c r="F5" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="M5" s="25">
-        <v>41835</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="34"/>
+      <c r="L5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="9">
+        <v>40772</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="P5" s="5">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>507</v>
@@ -23445,91 +23471,94 @@
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>173</v>
+        <v>533</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="M6" s="9">
-        <v>38824</v>
+        <v>41471</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O6" s="21"/>
+        <v>184</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>536</v>
+      </c>
       <c r="P6" s="5">
         <v>0</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>531</v>
-      </c>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="I7" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="9">
-        <v>41948</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>184</v>
+      <c r="K7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="M7" s="13">
+        <v>41556</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>543</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -23541,22 +23570,22 @@
     </row>
     <row r="8" spans="1:18" s="7" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>144</v>
+        <v>507</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>173</v>
@@ -23565,7 +23594,7 @@
         <v>49</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>103</v>
@@ -23574,124 +23603,118 @@
         <v>41</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>495</v>
+        <v>42</v>
       </c>
       <c r="M8" s="9">
-        <v>40050</v>
+        <v>38589</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="O8" s="21"/>
       <c r="P8" s="5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="9">
+        <v>41541</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="F10" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="P9" s="5">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>45</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="25">
-        <v>2003</v>
-      </c>
-      <c r="M10" s="26">
-        <v>36314</v>
-      </c>
-      <c r="N10" s="25" t="s">
+      <c r="M10" s="8">
+        <v>39759</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>237</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
@@ -23702,76 +23725,77 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="9">
-        <v>41633</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>175</v>
+      <c r="A11" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="M11" s="13">
+        <v>42305</v>
+      </c>
+      <c r="N11" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>554</v>
       </c>
       <c r="P11" s="5">
-        <v>53</v>
+        <v>899</v>
       </c>
       <c r="Q11" s="5">
-        <v>51</v>
+        <v>866</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="8" t="s">
-        <v>52</v>
+        <v>512</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>53</v>
+        <v>509</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>24</v>
@@ -23780,28 +23804,31 @@
         <v>49</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>495</v>
       </c>
       <c r="M12" s="9">
-        <v>41001</v>
+        <v>42088</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>60</v>
+        <v>513</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>535</v>
       </c>
       <c r="P12" s="5">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="5">
-        <v>720</v>
+        <v>293</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>530</v>
@@ -23809,215 +23836,213 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="M13" s="8">
-        <v>41723</v>
+      <c r="M13" s="9">
+        <v>40050</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="P13" s="5">
-        <v>1074</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="5">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="25" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>115</v>
+        <v>410</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>118</v>
+        <v>265</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>119</v>
+        <v>266</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="25">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="M14" s="26">
-        <v>39515</v>
+        <v>37769</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="O14" s="34"/>
+        <v>268</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>454</v>
+      </c>
       <c r="P14" s="5">
-        <v>23</v>
+        <v>706</v>
       </c>
       <c r="Q14" s="5">
-        <v>25</v>
+        <v>865</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="8" t="s">
-        <v>90</v>
+        <v>341</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="F15" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>41</v>
       </c>
       <c r="L15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="13">
+        <v>42402</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="M15" s="9">
-        <v>41835</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" s="5">
-        <v>1227</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>869</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="26">
-        <v>39687</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>456</v>
+      <c r="M16" s="9">
+        <v>41001</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="P16" s="5">
-        <v>1549</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="5">
-        <v>569</v>
+        <v>720</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>530</v>
@@ -24025,31 +24050,31 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="8" t="s">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>84</v>
+        <v>463</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>13</v>
@@ -24058,100 +24083,103 @@
         <v>41</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M17" s="9">
-        <v>40743</v>
+        <v>42</v>
+      </c>
+      <c r="M17" s="8">
+        <v>41541</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>86</v>
+        <v>464</v>
       </c>
       <c r="P17" s="5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="5">
-        <v>422</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="A18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="F18" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="9">
-        <v>39666</v>
-      </c>
-      <c r="N18" s="7"/>
+      <c r="L18" s="25">
+        <v>2007</v>
+      </c>
+      <c r="M18" s="26">
+        <v>39515</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="34"/>
       <c r="P18" s="5">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5"/>
+        <v>318</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="8" t="s">
-        <v>332</v>
+        <v>122</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>412</v>
+        <v>123</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>333</v>
+        <v>126</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>533</v>
+        <v>173</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>13</v>
@@ -24160,52 +24188,54 @@
         <v>41</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>42</v>
+        <v>495</v>
       </c>
       <c r="M19" s="9">
-        <v>41541</v>
+        <v>41948</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="P19" s="5">
-        <v>0</v>
+        <v>1238</v>
       </c>
       <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5"/>
+        <v>568</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="8" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>173</v>
+        <v>533</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>41</v>
@@ -24214,120 +24244,121 @@
         <v>42</v>
       </c>
       <c r="M20" s="9">
-        <v>39867</v>
+        <v>39515</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>142</v>
+        <v>293</v>
       </c>
       <c r="P20" s="5">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="5">
-        <v>11</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="A21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="F21" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="8">
-        <v>39759</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="L21" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="M21" s="25">
+        <v>41835</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="34"/>
       <c r="P21" s="5">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="Q21" s="5">
-        <v>0</v>
-      </c>
-      <c r="R21" s="5"/>
+        <v>583</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="8" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>431</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>95</v>
+        <v>416</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="M22" s="8">
-        <v>38824</v>
+      <c r="M22" s="9">
+        <v>41887</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="P22" s="5">
-        <v>840</v>
+        <v>43</v>
+      </c>
+      <c r="P22" s="35">
+        <v>313</v>
       </c>
       <c r="Q22" s="5">
-        <v>864</v>
+        <v>632</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>530</v>
@@ -24335,87 +24366,83 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="8" t="s">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>495</v>
+        <v>42</v>
       </c>
       <c r="M23" s="9">
-        <v>41400</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>79</v>
-      </c>
+        <v>39666</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="P23" s="5">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="5">
-        <v>176</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="8" t="s">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="F24" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>41</v>
@@ -24423,13 +24450,15 @@
       <c r="L24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="13">
-        <v>42402</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O24" s="22"/>
+      <c r="M24" s="9">
+        <v>38490</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>219</v>
+      </c>
       <c r="P24" s="5">
         <v>0</v>
       </c>
@@ -24440,155 +24469,153 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>436</v>
+        <v>343</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>521</v>
+        <v>56</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>522</v>
+        <v>344</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="43" t="s">
-        <v>525</v>
+        <v>49</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="13">
+        <v>42402</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="O25" s="22"/>
       <c r="P25" s="5">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5">
-        <v>789</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R25" s="5"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="25">
-        <v>2007</v>
-      </c>
-      <c r="M26" s="26">
-        <v>39511</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="O26" s="34" t="s">
-        <v>455</v>
+      <c r="D26" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="9">
+        <v>41662</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="P26" s="5">
-        <v>706</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="5">
-        <v>792</v>
+        <v>547</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="E27" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="F27" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="8" t="s">
+      <c r="I27" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8">
-        <v>2013</v>
-      </c>
-      <c r="M27" s="9">
-        <v>41984</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>293</v>
-      </c>
+      <c r="L27" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="45">
+        <v>41101</v>
+      </c>
+      <c r="N27" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="O27" s="46"/>
       <c r="P27" s="5">
         <v>0</v>
       </c>
@@ -24599,543 +24626,510 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="8" t="s">
-        <v>512</v>
+        <v>191</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>509</v>
+        <v>192</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>24</v>
+        <v>533</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="9">
+        <v>41948</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" s="7" customFormat="1">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L29" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="M28" s="9">
-        <v>42088</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="O28" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="P28" s="5">
-        <v>42</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>293</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="7" customFormat="1">
-      <c r="A29" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="M29" s="13">
-        <v>42305</v>
-      </c>
-      <c r="N29" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>554</v>
-      </c>
+      <c r="M29" s="9">
+        <v>41502</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="21"/>
       <c r="P29" s="5">
-        <v>899</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="5">
-        <v>866</v>
+        <v>579</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>507</v>
-      </c>
-      <c r="C30" s="38" t="s">
+    <row r="30" spans="1:18" s="7" customFormat="1">
+      <c r="A30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M30" s="8">
+        <v>41723</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="21"/>
+      <c r="P30" s="5">
+        <v>1074</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>431</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="26">
+        <v>39478</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="13">
+        <v>42397</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O32" s="22"/>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="H30" s="38" t="s">
+      <c r="D33" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="O33" s="22"/>
+      <c r="P33" s="5">
+        <v>304</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>789</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="38" t="s">
+      <c r="I34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="M30" s="40">
-        <v>41779</v>
-      </c>
-      <c r="N30" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="O30" s="42" t="s">
-        <v>532</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>0</v>
-      </c>
-      <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M31" s="9">
-        <v>41887</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" s="35">
-        <v>313</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>632</v>
-      </c>
-      <c r="R31" s="5" t="s">
+      <c r="M34" s="9">
+        <v>41835</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="P34" s="5">
+        <v>1550</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>570</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M32" s="9">
-        <v>42013</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="P32" s="5">
-        <v>1551</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>431</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M33" s="8">
-        <v>41984</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="P33" s="5">
-        <v>53</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>41</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="26">
-        <v>38447</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="O34" s="34"/>
-      <c r="P34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>0</v>
-      </c>
-      <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="1:18" s="8" customFormat="1">
+    <row r="35" spans="1:18">
       <c r="A35" s="25" t="s">
-        <v>418</v>
+        <v>269</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>419</v>
+        <v>270</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>415</v>
+        <v>273</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>64</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>65</v>
+        <v>274</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>275</v>
       </c>
       <c r="K35" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="25" t="s">
-        <v>42</v>
+      <c r="L35" s="25">
+        <v>2007</v>
       </c>
       <c r="M35" s="26">
-        <v>39478</v>
+        <v>39511</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c r="O35" s="34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P35" s="5">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="Q35" s="5">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M36" s="9">
-        <v>41541</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="8" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="O36" s="22"/>
       <c r="P36" s="5">
-        <v>33</v>
+        <v>1303</v>
       </c>
       <c r="Q36" s="5">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M37" s="9">
-        <v>40907</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>293</v>
-      </c>
+      <c r="A37" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="M37" s="13"/>
+      <c r="N37" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="O37" s="22"/>
       <c r="P37" s="5">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="Q37" s="5">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="1:18">
+        <v>786</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="7" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>284</v>
+        <v>61</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>55</v>
@@ -25147,10 +25141,10 @@
         <v>30</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>49</v>
@@ -25165,40 +25159,43 @@
         <v>41</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>42</v>
+        <v>495</v>
       </c>
       <c r="M38" s="9">
-        <v>41001</v>
+        <v>41541</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>282</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="O38" s="21"/>
       <c r="P38" s="5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="5">
-        <v>0</v>
-      </c>
-      <c r="R38" s="5"/>
+        <v>608</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>411</v>
+        <v>91</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>95</v>
@@ -25207,10 +25204,10 @@
         <v>49</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>41</v>
@@ -25219,105 +25216,107 @@
         <v>495</v>
       </c>
       <c r="M39" s="9">
-        <v>40907</v>
+        <v>41835</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P39" s="5">
-        <v>1492</v>
+        <v>1227</v>
       </c>
       <c r="Q39" s="5">
-        <v>569</v>
+        <v>869</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="7" customFormat="1">
-      <c r="A40" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="8" t="s">
+    <row r="40" spans="1:18">
+      <c r="A40" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="8" t="s">
+      <c r="F40" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40" s="8" t="s">
+      <c r="H40" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M40" s="9">
-        <v>41625</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="O40" s="21"/>
+      <c r="L40" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="26">
+        <v>39687</v>
+      </c>
+      <c r="N40" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>456</v>
+      </c>
       <c r="P40" s="5">
-        <v>1029</v>
+        <v>1350</v>
       </c>
       <c r="Q40" s="5">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="7" customFormat="1">
+    <row r="41" spans="1:18">
       <c r="A41" s="8" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>130</v>
+        <v>411</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>41</v>
@@ -25326,154 +25325,156 @@
         <v>495</v>
       </c>
       <c r="M41" s="9">
-        <v>41835</v>
+        <v>40907</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="O41" s="21"/>
+        <v>104</v>
+      </c>
       <c r="P41" s="5">
-        <v>53</v>
+        <v>1291</v>
       </c>
       <c r="Q41" s="5">
-        <v>21</v>
+        <v>867</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="7" customFormat="1">
       <c r="A42" s="8" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>507</v>
+        <v>81</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="L42" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M42" s="9">
+        <v>40743</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O42" s="21"/>
+      <c r="P42" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>422</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="7" customFormat="1">
+      <c r="A43" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="9">
-        <v>40772</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="P42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5" t="s">
+      <c r="M43" s="25"/>
+      <c r="N43" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="O43" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="P43" s="5">
+        <v>756</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>524</v>
+      </c>
+      <c r="R43" s="5" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M43" s="9">
-        <v>38490</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="P43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="8" t="s">
-        <v>490</v>
+        <v>165</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>491</v>
+        <v>158</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="G44" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="H44" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>494</v>
+        <v>167</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>78</v>
@@ -25485,72 +25486,69 @@
         <v>495</v>
       </c>
       <c r="M44" s="8">
-        <v>41565</v>
+        <v>41984</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>496</v>
+        <v>164</v>
       </c>
       <c r="P44" s="5">
-        <v>1051</v>
+        <v>757</v>
       </c>
       <c r="Q44" s="5">
-        <v>248</v>
+        <v>566</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E45" s="25" t="s">
+      <c r="A45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="K45" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L45" s="25">
-        <v>2003</v>
-      </c>
-      <c r="M45" s="26">
-        <v>37769</v>
-      </c>
-      <c r="N45" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="O45" s="34" t="s">
-        <v>454</v>
+      <c r="F45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M45" s="9">
+        <v>41400</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="P45" s="5">
-        <v>706</v>
+        <v>242</v>
       </c>
       <c r="Q45" s="5">
-        <v>865</v>
+        <v>176</v>
       </c>
       <c r="R45" s="5" t="s">
         <v>530</v>
@@ -25558,10 +25556,10 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="8" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>55</v>
@@ -25573,10 +25571,10 @@
         <v>30</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>329</v>
+        <v>533</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>49</v>
@@ -25591,16 +25589,13 @@
         <v>41</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="M46" s="9">
-        <v>41001</v>
+        <v>40907</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="O46" s="21" t="s">
-        <v>534</v>
+        <v>293</v>
       </c>
       <c r="P46" s="5">
         <v>0</v>
@@ -25612,52 +25607,52 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="8" t="s">
-        <v>67</v>
+        <v>497</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>68</v>
+        <v>431</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M47" s="9">
-        <v>41471</v>
+        <v>495</v>
+      </c>
+      <c r="M47" s="8">
+        <v>38824</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="P47" s="5">
-        <v>377</v>
+        <v>840</v>
       </c>
       <c r="Q47" s="5">
-        <v>173</v>
+        <v>864</v>
       </c>
       <c r="R47" s="5" t="s">
         <v>530</v>
@@ -25665,151 +25660,157 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="8" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L48" s="8">
-        <v>2007</v>
+        <v>18</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>495</v>
       </c>
       <c r="M48" s="9">
-        <v>41001</v>
+        <v>42013</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="P48" s="5">
-        <v>0</v>
+        <v>1551</v>
       </c>
       <c r="Q48" s="5">
-        <v>0</v>
-      </c>
-      <c r="R48" s="5"/>
+        <v>431</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="8" t="s">
-        <v>538</v>
+        <v>208</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>433</v>
+        <v>204</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>539</v>
+        <v>210</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>488</v>
+        <v>211</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>95</v>
+        <v>533</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>540</v>
+        <v>212</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>41</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="M49" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="M49" s="9">
+        <v>40735</v>
+      </c>
       <c r="N49" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8">
-        <v>1547</v>
-      </c>
-      <c r="Q49" s="8">
-        <v>857</v>
-      </c>
-      <c r="R49" s="8" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="7" customFormat="1">
-      <c r="A50" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0</v>
+      </c>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="8" t="s">
+      <c r="F50" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K50" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M50" s="13">
-        <v>42402</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="O50" s="22"/>
+      <c r="L50" s="25">
+        <v>2003</v>
+      </c>
+      <c r="M50" s="26">
+        <v>36314</v>
+      </c>
+      <c r="N50" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O50" s="34" t="s">
+        <v>237</v>
+      </c>
       <c r="P50" s="5">
         <v>0</v>
       </c>
@@ -25820,22 +25821,22 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="8" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>507</v>
+        <v>231</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>533</v>
@@ -25844,7 +25845,7 @@
         <v>49</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>78</v>
@@ -25852,17 +25853,14 @@
       <c r="K51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L51" s="8" t="s">
-        <v>207</v>
+      <c r="L51" s="8">
+        <v>2013</v>
       </c>
       <c r="M51" s="9">
-        <v>41471</v>
+        <v>41984</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>536</v>
+        <v>293</v>
       </c>
       <c r="P51" s="5">
         <v>0</v>
@@ -25872,47 +25870,51 @@
       </c>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="E52" s="25" t="s">
+    <row r="52" spans="1:18" s="7" customFormat="1">
+      <c r="A52" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="K52" s="25" t="s">
+      <c r="F52" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L52" s="25" t="s">
+      <c r="L52" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="M52" s="26">
-        <v>36394</v>
-      </c>
-      <c r="N52" s="25"/>
-      <c r="O52" s="34" t="s">
-        <v>503</v>
+      <c r="M52" s="9">
+        <v>41001</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>534</v>
       </c>
       <c r="P52" s="5">
         <v>0</v>
@@ -25923,32 +25925,32 @@
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="5" t="s">
-        <v>339</v>
+      <c r="A53" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="H53" s="5" t="s">
+      <c r="F53" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>13</v>
@@ -25959,80 +25961,80 @@
       <c r="L53" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M53" s="13">
-        <v>42397</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O53" s="22"/>
+      <c r="M53" s="9">
+        <v>41633</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="P53" s="5">
+        <v>755</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>649</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" s="26">
+        <v>38447</v>
+      </c>
+      <c r="N54" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="O54" s="34"/>
+      <c r="P54" s="5">
         <v>0</v>
       </c>
-      <c r="Q53" s="5">
+      <c r="Q54" s="5">
         <v>0</v>
       </c>
-      <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M54" s="9">
-        <v>41662</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P54" s="5">
-        <v>19</v>
-      </c>
-      <c r="Q54" s="5">
-        <v>43</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>531</v>
-      </c>
+      <c r="R54" s="5"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="8" t="s">
-        <v>460</v>
+        <v>220</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>461</v>
+        <v>221</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>55</v>
@@ -26044,10 +26046,10 @@
         <v>30</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>49</v>
@@ -26061,14 +26063,14 @@
       <c r="K55" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L55" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M55" s="8">
-        <v>41541</v>
+      <c r="L55" s="8">
+        <v>2007</v>
+      </c>
+      <c r="M55" s="9">
+        <v>41001</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>464</v>
+        <v>218</v>
       </c>
       <c r="P55" s="5">
         <v>0</v>
@@ -26079,28 +26081,28 @@
       <c r="R55" s="5"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="5" t="s">
-        <v>343</v>
+      <c r="A56" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C56" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="G56" s="5" t="s">
+      <c r="F56" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I56" s="8" t="s">
@@ -26115,13 +26117,12 @@
       <c r="L56" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M56" s="13">
-        <v>42402</v>
-      </c>
-      <c r="N56" s="5" t="s">
+      <c r="M56" s="9">
+        <v>41001</v>
+      </c>
+      <c r="N56" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="O56" s="22"/>
       <c r="P56" s="5">
         <v>0</v>
       </c>
@@ -26131,32 +26132,53 @@
       <c r="R56" s="5"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="43" t="s">
-        <v>558</v>
-      </c>
-      <c r="O57" s="22"/>
+      <c r="A57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M57" s="9">
+        <v>41471</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="P57" s="5">
-        <v>1303</v>
+        <v>377</v>
       </c>
       <c r="Q57" s="5">
-        <v>568</v>
+        <v>173</v>
       </c>
       <c r="R57" s="5" t="s">
         <v>530</v>
@@ -26164,16 +26186,16 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>12</v>
@@ -26182,23 +26204,33 @@
       <c r="G58" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L58" s="5" t="s">
-        <v>495</v>
+        <v>42</v>
       </c>
       <c r="M58" s="13"/>
       <c r="N58" s="43" t="s">
-        <v>557</v>
-      </c>
-      <c r="O58" s="22"/>
+        <v>563</v>
+      </c>
+      <c r="O58" s="22" t="s">
+        <v>567</v>
+      </c>
       <c r="P58" s="5">
-        <v>1237</v>
+        <v>818</v>
       </c>
       <c r="Q58" s="5">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="R58" s="5" t="s">
         <v>530</v>
@@ -26206,130 +26238,125 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="8" t="s">
-        <v>208</v>
+        <v>538</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>204</v>
+        <v>433</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>210</v>
+        <v>539</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>211</v>
+        <v>488</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>533</v>
+        <v>95</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>212</v>
+        <v>540</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>41</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M59" s="9">
-        <v>40735</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M59" s="8"/>
       <c r="N59" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="O59" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="P59" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="5">
-        <v>0</v>
-      </c>
-      <c r="R59" s="5"/>
+        <v>496</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8">
+        <v>1547</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>857</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="A60" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="H60" s="5" t="s">
+      <c r="D60" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="5" t="s">
+      <c r="I60" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L60" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M60" s="13">
-        <v>41556</v>
-      </c>
-      <c r="N60" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="O60" s="22" t="s">
-        <v>543</v>
+      <c r="L60" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M60" s="8">
+        <v>41565</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>496</v>
       </c>
       <c r="P60" s="5">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="Q60" s="5">
-        <v>0</v>
-      </c>
-      <c r="R60" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="8" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>173</v>
@@ -26338,131 +26365,127 @@
         <v>49</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>41</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>495</v>
+        <v>42</v>
       </c>
       <c r="M61" s="9">
-        <v>41948</v>
+        <v>39867</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="P61" s="5">
-        <v>53</v>
+        <v>759</v>
       </c>
       <c r="Q61" s="5">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="R61" s="5" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="7" customFormat="1">
-      <c r="A62" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E62" s="8" t="s">
+    <row r="62" spans="1:18">
+      <c r="A62" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K62" s="8" t="s">
+      <c r="F62" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="K62" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L62" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M62" s="9">
-        <v>38589</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O62" s="21"/>
+      <c r="L62" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M62" s="26">
+        <v>36394</v>
+      </c>
+      <c r="N62" s="25"/>
+      <c r="O62" s="34" t="s">
+        <v>503</v>
+      </c>
       <c r="P62" s="5">
         <v>0</v>
       </c>
       <c r="Q62" s="5">
         <v>0</v>
       </c>
-      <c r="R62" s="5" t="s">
-        <v>531</v>
-      </c>
+      <c r="R62" s="5"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="E63" s="44" t="s">
+      <c r="A63" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="G63" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="H63" s="44" t="s">
+      <c r="F63" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I63" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="J63" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="K63" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="44" t="s">
+      <c r="I63" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M63" s="45">
-        <v>41101</v>
-      </c>
-      <c r="N63" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="O63" s="46"/>
+      <c r="M63" s="13">
+        <v>42402</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="O63" s="22"/>
       <c r="P63" s="5">
         <v>0</v>
       </c>
@@ -26470,6 +26493,104 @@
         <v>0</v>
       </c>
       <c r="R63" s="5"/>
+    </row>
+    <row r="64" spans="1:18" s="7" customFormat="1">
+      <c r="A64" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M64" s="9">
+        <v>41625</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O64" s="21"/>
+      <c r="P64" s="5">
+        <v>1029</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>868</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="O65" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="P65" s="5">
+        <v>396</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>749</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>531</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
